--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9574227723472332</v>
+        <v>0.9574227723472333</v>
       </c>
       <c r="D2">
         <v>0.9845260758594492</v>
       </c>
       <c r="E2">
-        <v>0.9659172030175498</v>
+        <v>0.96591720301755</v>
       </c>
       <c r="F2">
-        <v>0.9318679616624722</v>
+        <v>0.9318679616624721</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>0.9809560703824779</v>
       </c>
       <c r="K2">
-        <v>0.9962052810676697</v>
+        <v>0.9962052810676696</v>
       </c>
       <c r="L2">
         <v>0.9778727122523738</v>
       </c>
       <c r="M2">
-        <v>0.9443658228179618</v>
+        <v>0.9443658228179619</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9705733280881478</v>
+        <v>0.9705733280881488</v>
       </c>
       <c r="D3">
-        <v>0.9947148345102791</v>
+        <v>0.9947148345102801</v>
       </c>
       <c r="E3">
-        <v>0.9784505372360577</v>
+        <v>0.9784505372360586</v>
       </c>
       <c r="F3">
-        <v>0.948404901434312</v>
+        <v>0.9484049014343129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033326452685835</v>
+        <v>1.033326452685836</v>
       </c>
       <c r="J3">
-        <v>0.9918996570710192</v>
+        <v>0.9918996570710202</v>
       </c>
       <c r="K3">
-        <v>1.005415789683861</v>
+        <v>1.005415789683862</v>
       </c>
       <c r="L3">
-        <v>0.9893667806964522</v>
+        <v>0.9893667806964532</v>
       </c>
       <c r="M3">
-        <v>0.9597434809229278</v>
+        <v>0.959743480922929</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9785905626958246</v>
+        <v>0.9785905626958267</v>
       </c>
       <c r="D4">
-        <v>1.000930978766011</v>
+        <v>1.000930978766012</v>
       </c>
       <c r="E4">
-        <v>0.986097854378956</v>
+        <v>0.986097854378958</v>
       </c>
       <c r="F4">
-        <v>0.9584707964348324</v>
+        <v>0.9584707964348349</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036144103546654</v>
+        <v>1.036144103546655</v>
       </c>
       <c r="J4">
-        <v>0.9985582451420852</v>
+        <v>0.9985582451420872</v>
       </c>
       <c r="K4">
-        <v>1.011018180666108</v>
+        <v>1.011018180666109</v>
       </c>
       <c r="L4">
-        <v>0.996367013367218</v>
+        <v>0.9963670133672199</v>
       </c>
       <c r="M4">
-        <v>0.9690977045204991</v>
+        <v>0.9690977045205014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9818559991406545</v>
+        <v>0.9818559991406561</v>
       </c>
       <c r="D5">
-        <v>1.003463595365295</v>
+        <v>1.003463595365296</v>
       </c>
       <c r="E5">
-        <v>0.9892140049455102</v>
+        <v>0.9892140049455117</v>
       </c>
       <c r="F5">
-        <v>0.9625680249952004</v>
+        <v>0.9625680249952016</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037286566768056</v>
+        <v>1.037286566768057</v>
       </c>
       <c r="J5">
-        <v>1.001267128658542</v>
+        <v>1.001267128658544</v>
       </c>
       <c r="K5">
-        <v>1.013296841077194</v>
+        <v>1.013296841077195</v>
       </c>
       <c r="L5">
-        <v>0.9992164568651695</v>
+        <v>0.9992164568651711</v>
       </c>
       <c r="M5">
-        <v>0.9729036909213081</v>
+        <v>0.9729036909213095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9823984509615927</v>
+        <v>0.9823984509615941</v>
       </c>
       <c r="D6">
-        <v>1.003884348266583</v>
+        <v>1.003884348266585</v>
       </c>
       <c r="E6">
-        <v>0.9897317350543703</v>
+        <v>0.9897317350543714</v>
       </c>
       <c r="F6">
-        <v>0.9632485282919577</v>
+        <v>0.9632485282919596</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037476044448899</v>
       </c>
       <c r="J6">
-        <v>1.001716939027179</v>
+        <v>1.00171693902718</v>
       </c>
       <c r="K6">
-        <v>1.013675178024039</v>
+        <v>1.01367517802404</v>
       </c>
       <c r="L6">
-        <v>0.9996896987322225</v>
+        <v>0.9996896987322238</v>
       </c>
       <c r="M6">
-        <v>0.9735357272219002</v>
+        <v>0.973535727221902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,13 +629,13 @@
         <v>1.036159528970081</v>
       </c>
       <c r="J7">
-        <v>0.9985947837418638</v>
+        <v>0.9985947837418639</v>
       </c>
       <c r="K7">
         <v>1.011048918513692</v>
       </c>
       <c r="L7">
-        <v>0.9964054416941068</v>
+        <v>0.9964054416941071</v>
       </c>
       <c r="M7">
         <v>0.969149038349889</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9619774633233168</v>
+        <v>0.9619774633233144</v>
       </c>
       <c r="D8">
-        <v>0.9880537417999771</v>
+        <v>0.9880537417999751</v>
       </c>
       <c r="E8">
-        <v>0.9702566474670266</v>
+        <v>0.9702566474670247</v>
       </c>
       <c r="F8">
-        <v>0.9375997608616948</v>
+        <v>0.9375997608616925</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030287278681238</v>
+        <v>1.030287278681237</v>
       </c>
       <c r="J8">
-        <v>0.9847492054796974</v>
+        <v>0.9847492054796952</v>
       </c>
       <c r="K8">
-        <v>0.9993980018237689</v>
+        <v>0.9993980018237669</v>
       </c>
       <c r="L8">
-        <v>0.9818551756864689</v>
+        <v>0.981855175686467</v>
       </c>
       <c r="M8">
-        <v>0.9496970240190428</v>
+        <v>0.9496970240190407</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9281086322622942</v>
+        <v>0.9281086322622953</v>
       </c>
       <c r="D9">
-        <v>0.9618613898787933</v>
+        <v>0.9618613898787941</v>
       </c>
       <c r="E9">
-        <v>0.9380260521248345</v>
+        <v>0.9380260521248358</v>
       </c>
       <c r="F9">
-        <v>0.8948329145281462</v>
+        <v>0.8948329145281473</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.018169665969713</v>
       </c>
       <c r="J9">
-        <v>0.9564830627354604</v>
+        <v>0.9564830627354614</v>
       </c>
       <c r="K9">
-        <v>0.9756051098749008</v>
+        <v>0.9756051098749017</v>
       </c>
       <c r="L9">
-        <v>0.9522115692302713</v>
+        <v>0.9522115692302727</v>
       </c>
       <c r="M9">
-        <v>0.9098987040182266</v>
+        <v>0.9098987040182276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9010066763455887</v>
+        <v>0.9010066763455875</v>
       </c>
       <c r="D10">
-        <v>0.9409850800127433</v>
+        <v>0.9409850800127423</v>
       </c>
       <c r="E10">
-        <v>0.9122988297442763</v>
+        <v>0.9122988297442755</v>
       </c>
       <c r="F10">
-        <v>0.8602820820221476</v>
+        <v>0.8602820820221462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.008358721284558</v>
+        <v>1.008358721284557</v>
       </c>
       <c r="J10">
-        <v>0.9337841052495398</v>
+        <v>0.9337841052495387</v>
       </c>
       <c r="K10">
-        <v>0.9565083984376966</v>
+        <v>0.9565083984376955</v>
       </c>
       <c r="L10">
-        <v>0.9284552645197774</v>
+        <v>0.9284552645197763</v>
       </c>
       <c r="M10">
-        <v>0.8777333798014617</v>
+        <v>0.8777333798014602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8876441026218906</v>
+        <v>0.8876441026218883</v>
       </c>
       <c r="D11">
-        <v>0.9307258112397396</v>
+        <v>0.9307258112397377</v>
       </c>
       <c r="E11">
-        <v>0.8996355574761051</v>
+        <v>0.899635557476103</v>
       </c>
       <c r="F11">
-        <v>0.843098052266781</v>
+        <v>0.8430980522667787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003497684150694</v>
+        <v>1.003497684150693</v>
       </c>
       <c r="J11">
-        <v>0.9225729746718355</v>
+        <v>0.9225729746718333</v>
       </c>
       <c r="K11">
-        <v>0.9470841022510886</v>
+        <v>0.9470841022510866</v>
       </c>
       <c r="L11">
-        <v>0.9167356573836847</v>
+        <v>0.9167356573836825</v>
       </c>
       <c r="M11">
-        <v>0.8617406053573902</v>
+        <v>0.8617406053573882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.882358494818934</v>
+        <v>0.882358494818936</v>
       </c>
       <c r="D12">
-        <v>0.9266745466367892</v>
+        <v>0.9266745466367907</v>
       </c>
       <c r="E12">
-        <v>0.8946305553545847</v>
+        <v>0.8946305553545864</v>
       </c>
       <c r="F12">
-        <v>0.8362684145098348</v>
+        <v>0.8362684145098371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.001571782137678</v>
+        <v>1.001571782137679</v>
       </c>
       <c r="J12">
-        <v>0.9181354017802631</v>
+        <v>0.9181354017802651</v>
       </c>
       <c r="K12">
-        <v>0.9433556210496922</v>
+        <v>0.9433556210496938</v>
       </c>
       <c r="L12">
-        <v>0.9120991536738514</v>
+        <v>0.9120991536738531</v>
       </c>
       <c r="M12">
-        <v>0.8553863150967967</v>
+        <v>0.8553863150967987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8835085527521381</v>
+        <v>0.8835085527521382</v>
       </c>
       <c r="D13">
         <v>0.9275556917677142</v>
       </c>
       <c r="E13">
-        <v>0.8957193640910527</v>
+        <v>0.8957193640910528</v>
       </c>
       <c r="F13">
-        <v>0.8377561003012988</v>
+        <v>0.8377561003012991</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.001990955081604</v>
       </c>
       <c r="J13">
-        <v>0.9191010766326536</v>
+        <v>0.9191010766326535</v>
       </c>
       <c r="K13">
         <v>0.9441668922962563</v>
       </c>
       <c r="L13">
-        <v>0.9131080084554258</v>
+        <v>0.9131080084554259</v>
       </c>
       <c r="M13">
-        <v>0.8567703463127155</v>
+        <v>0.8567703463127158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8872143592165195</v>
+        <v>0.8872143592165234</v>
       </c>
       <c r="D14">
-        <v>0.9303962769557984</v>
+        <v>0.9303962769558016</v>
       </c>
       <c r="E14">
-        <v>0.8992285434878574</v>
+        <v>0.8992285434878611</v>
       </c>
       <c r="F14">
-        <v>0.8425434961803693</v>
+        <v>0.8425434961803738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003341158420617</v>
+        <v>1.003341158420619</v>
       </c>
       <c r="J14">
-        <v>0.9222122401905604</v>
+        <v>0.9222122401905641</v>
       </c>
       <c r="K14">
-        <v>0.946780969153642</v>
+        <v>0.9467809691536454</v>
       </c>
       <c r="L14">
-        <v>0.9163587031272641</v>
+        <v>0.9163587031272679</v>
       </c>
       <c r="M14">
-        <v>0.8612246000819445</v>
+        <v>0.8612246000819487</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8894519412695718</v>
+        <v>0.8894519412695723</v>
       </c>
       <c r="D15">
-        <v>0.9321123753468042</v>
+        <v>0.9321123753468047</v>
       </c>
       <c r="E15">
-        <v>0.9013479427421331</v>
+        <v>0.9013479427421336</v>
       </c>
       <c r="F15">
-        <v>0.8454295859517847</v>
+        <v>0.8454295859517854</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.004156033904479</v>
+        <v>1.00415603390448</v>
       </c>
       <c r="J15">
-        <v>0.9240903884713145</v>
+        <v>0.9240903884713152</v>
       </c>
       <c r="K15">
-        <v>0.9483592959173798</v>
+        <v>0.9483592959173803</v>
       </c>
       <c r="L15">
-        <v>0.9183213938057575</v>
+        <v>0.9183213938057581</v>
       </c>
       <c r="M15">
-        <v>0.863910142678681</v>
+        <v>0.8639101426786817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9018534198049404</v>
+        <v>0.9018534198049378</v>
       </c>
       <c r="D16">
-        <v>0.9416359760320606</v>
+        <v>0.9416359760320587</v>
       </c>
       <c r="E16">
-        <v>0.9131017442776279</v>
+        <v>0.9131017442776256</v>
       </c>
       <c r="F16">
-        <v>0.8613673106148311</v>
+        <v>0.8613673106148283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.008666311202523</v>
+        <v>1.008666311202522</v>
       </c>
       <c r="J16">
-        <v>0.9344941288561998</v>
+        <v>0.9344941288561974</v>
       </c>
       <c r="K16">
-        <v>0.957105459692326</v>
+        <v>0.9571054596923242</v>
       </c>
       <c r="L16">
-        <v>0.9291977835183218</v>
+        <v>0.9291977835183196</v>
       </c>
       <c r="M16">
-        <v>0.8787435534473729</v>
+        <v>0.8787435534473703</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9091527142966148</v>
+        <v>0.9091527142966097</v>
       </c>
       <c r="D17">
-        <v>0.9472507408751538</v>
+        <v>0.9472507408751499</v>
       </c>
       <c r="E17">
-        <v>0.9200255822333075</v>
+        <v>0.9200255822333026</v>
       </c>
       <c r="F17">
-        <v>0.870705820840747</v>
+        <v>0.8707058208407411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011315354703189</v>
+        <v>1.011315354703187</v>
       </c>
       <c r="J17">
-        <v>0.9406127511595006</v>
+        <v>0.9406127511594958</v>
       </c>
       <c r="K17">
-        <v>0.9622515033607336</v>
+        <v>0.9622515033607296</v>
       </c>
       <c r="L17">
-        <v>0.9355979290542699</v>
+        <v>0.9355979290542649</v>
       </c>
       <c r="M17">
-        <v>0.8874367948965486</v>
+        <v>0.8874367948965429</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9132598870559212</v>
+        <v>0.9132598870559223</v>
       </c>
       <c r="D18">
-        <v>0.9504129360610499</v>
+        <v>0.9504129360610509</v>
       </c>
       <c r="E18">
-        <v>0.92392334862628</v>
+        <v>0.9239233486262813</v>
       </c>
       <c r="F18">
-        <v>0.8759479579347137</v>
+        <v>0.8759479579347148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012803772649885</v>
+        <v>1.012803772649886</v>
       </c>
       <c r="J18">
-        <v>0.9440538574519682</v>
+        <v>0.9440538574519693</v>
       </c>
       <c r="K18">
-        <v>0.9651462639201536</v>
+        <v>0.9651462639201547</v>
       </c>
       <c r="L18">
-        <v>0.9391985657965993</v>
+        <v>0.9391985657966004</v>
       </c>
       <c r="M18">
-        <v>0.8923170486454158</v>
+        <v>0.8923170486454171</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9146366199274308</v>
+        <v>0.9146366199274354</v>
       </c>
       <c r="D19">
-        <v>0.9514733588144364</v>
+        <v>0.9514733588144404</v>
       </c>
       <c r="E19">
-        <v>0.9252301855135195</v>
+        <v>0.925230185513524</v>
       </c>
       <c r="F19">
-        <v>0.8777032293774263</v>
+        <v>0.8777032293774319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013302318233654</v>
+        <v>1.013302318233656</v>
       </c>
       <c r="J19">
-        <v>0.9452070313827455</v>
+        <v>0.9452070313827501</v>
       </c>
       <c r="K19">
-        <v>0.9661164400205755</v>
+        <v>0.9661164400205795</v>
       </c>
       <c r="L19">
-        <v>0.9404053992758272</v>
+        <v>0.9404053992758317</v>
       </c>
       <c r="M19">
-        <v>0.8939511803810728</v>
+        <v>0.8939511803810779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9083855698643418</v>
+        <v>0.9083855698643405</v>
       </c>
       <c r="D20">
-        <v>0.9466603266043485</v>
+        <v>0.9466603266043472</v>
       </c>
       <c r="E20">
-        <v>0.9192976987795879</v>
+        <v>0.9192976987795861</v>
       </c>
       <c r="F20">
-        <v>0.869725717937789</v>
+        <v>0.8697257179377872</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011037166893203</v>
       </c>
       <c r="J20">
-        <v>0.9399698745439228</v>
+        <v>0.9399698745439211</v>
       </c>
       <c r="K20">
-        <v>0.9617107444757796</v>
+        <v>0.9617107444757784</v>
       </c>
       <c r="L20">
-        <v>0.93492534559848</v>
+        <v>0.9349253455984783</v>
       </c>
       <c r="M20">
-        <v>0.8865243734338376</v>
+        <v>0.8865243734338359</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8861328116711552</v>
+        <v>0.8861328116711553</v>
       </c>
       <c r="D21">
-        <v>0.9295670440147232</v>
+        <v>0.9295670440147235</v>
       </c>
       <c r="E21">
-        <v>0.8982042662471735</v>
+        <v>0.8982042662471739</v>
       </c>
       <c r="F21">
-        <v>0.8411472702503275</v>
+        <v>0.841147270250328</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.002947178226262</v>
       </c>
       <c r="J21">
-        <v>0.9213043218352903</v>
+        <v>0.9213043218352904</v>
       </c>
       <c r="K21">
-        <v>0.9460180572789537</v>
+        <v>0.9460180572789539</v>
       </c>
       <c r="L21">
-        <v>0.915410000029117</v>
+        <v>0.9154100000291173</v>
       </c>
       <c r="M21">
-        <v>0.8599254700519149</v>
+        <v>0.8599254700519154</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8702027717045744</v>
+        <v>0.8702027717045746</v>
       </c>
       <c r="D22">
         <v>0.9173731133261017</v>
       </c>
       <c r="E22">
-        <v>0.8831288669695118</v>
+        <v>0.8831288669695121</v>
       </c>
       <c r="F22">
-        <v>0.8204832265765959</v>
+        <v>0.8204832265765964</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9971374924623086</v>
+        <v>0.9971374924623083</v>
       </c>
       <c r="J22">
-        <v>0.9079242163622148</v>
+        <v>0.9079242163622151</v>
       </c>
       <c r="K22">
-        <v>0.9347806308186967</v>
+        <v>0.9347806308186966</v>
       </c>
       <c r="L22">
-        <v>0.9014350504046333</v>
+        <v>0.9014350504046336</v>
       </c>
       <c r="M22">
-        <v>0.8407054137884519</v>
+        <v>0.8407054137884522</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8788697191111418</v>
+        <v>0.8788697191111415</v>
       </c>
       <c r="D23">
-        <v>0.9240027145820132</v>
+        <v>0.9240027145820128</v>
       </c>
       <c r="E23">
-        <v>0.891328246289833</v>
+        <v>0.8913282462898326</v>
       </c>
       <c r="F23">
-        <v>0.8317495345040329</v>
+        <v>0.8317495345040327</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.000299785323427</v>
       </c>
       <c r="J23">
-        <v>0.9152055188446586</v>
+        <v>0.9152055188446585</v>
       </c>
       <c r="K23">
-        <v>0.9408945414620508</v>
+        <v>0.9408945414620506</v>
       </c>
       <c r="L23">
-        <v>0.9090386324640449</v>
+        <v>0.9090386324640447</v>
       </c>
       <c r="M23">
-        <v>0.8511826987804691</v>
+        <v>0.8511826987804688</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9087326688238375</v>
+        <v>0.9087326688238391</v>
       </c>
       <c r="D24">
-        <v>0.9469274540716535</v>
+        <v>0.9469274540716544</v>
       </c>
       <c r="E24">
-        <v>0.9196270281105238</v>
+        <v>0.919627028110525</v>
       </c>
       <c r="F24">
-        <v>0.8701692096525248</v>
+        <v>0.8701692096525264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01116304135319</v>
+        <v>1.011163041353191</v>
       </c>
       <c r="J24">
-        <v>0.940260753214634</v>
+        <v>0.9402607532146351</v>
       </c>
       <c r="K24">
-        <v>0.9619554165895893</v>
+        <v>0.9619554165895904</v>
       </c>
       <c r="L24">
-        <v>0.9352296617976577</v>
+        <v>0.9352296617976589</v>
       </c>
       <c r="M24">
-        <v>0.8869372386501858</v>
+        <v>0.8869372386501874</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375242123261532</v>
+        <v>0.9375242123261519</v>
       </c>
       <c r="D25">
-        <v>0.9691328423857146</v>
+        <v>0.9691328423857136</v>
       </c>
       <c r="E25">
-        <v>0.9469774212779448</v>
+        <v>0.9469774212779433</v>
       </c>
       <c r="F25">
-        <v>0.9067599221198241</v>
+        <v>0.9067599221198225</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021557592274079</v>
+        <v>1.021557592274078</v>
       </c>
       <c r="J25">
-        <v>0.9643539586581475</v>
+        <v>0.9643539586581462</v>
       </c>
       <c r="K25">
-        <v>0.9822300083040245</v>
+        <v>0.9822300083040235</v>
       </c>
       <c r="L25">
-        <v>0.9604586742695228</v>
+        <v>0.9604586742695214</v>
       </c>
       <c r="M25">
-        <v>0.9210014928856056</v>
+        <v>0.9210014928856041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9574227723472333</v>
+        <v>0.9574227723472332</v>
       </c>
       <c r="D2">
         <v>0.9845260758594492</v>
       </c>
       <c r="E2">
-        <v>0.96591720301755</v>
+        <v>0.9659172030175498</v>
       </c>
       <c r="F2">
-        <v>0.9318679616624721</v>
+        <v>0.9318679616624722</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>0.9809560703824779</v>
       </c>
       <c r="K2">
-        <v>0.9962052810676696</v>
+        <v>0.9962052810676697</v>
       </c>
       <c r="L2">
         <v>0.9778727122523738</v>
       </c>
       <c r="M2">
-        <v>0.9443658228179619</v>
+        <v>0.9443658228179618</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9705733280881488</v>
+        <v>0.9705733280881478</v>
       </c>
       <c r="D3">
-        <v>0.9947148345102801</v>
+        <v>0.9947148345102791</v>
       </c>
       <c r="E3">
-        <v>0.9784505372360586</v>
+        <v>0.9784505372360577</v>
       </c>
       <c r="F3">
-        <v>0.9484049014343129</v>
+        <v>0.948404901434312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033326452685836</v>
+        <v>1.033326452685835</v>
       </c>
       <c r="J3">
-        <v>0.9918996570710202</v>
+        <v>0.9918996570710192</v>
       </c>
       <c r="K3">
-        <v>1.005415789683862</v>
+        <v>1.005415789683861</v>
       </c>
       <c r="L3">
-        <v>0.9893667806964532</v>
+        <v>0.9893667806964522</v>
       </c>
       <c r="M3">
-        <v>0.959743480922929</v>
+        <v>0.9597434809229278</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9785905626958267</v>
+        <v>0.9785905626958246</v>
       </c>
       <c r="D4">
-        <v>1.000930978766012</v>
+        <v>1.000930978766011</v>
       </c>
       <c r="E4">
-        <v>0.986097854378958</v>
+        <v>0.986097854378956</v>
       </c>
       <c r="F4">
-        <v>0.9584707964348349</v>
+        <v>0.9584707964348324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036144103546655</v>
+        <v>1.036144103546654</v>
       </c>
       <c r="J4">
-        <v>0.9985582451420872</v>
+        <v>0.9985582451420852</v>
       </c>
       <c r="K4">
-        <v>1.011018180666109</v>
+        <v>1.011018180666108</v>
       </c>
       <c r="L4">
-        <v>0.9963670133672199</v>
+        <v>0.996367013367218</v>
       </c>
       <c r="M4">
-        <v>0.9690977045205014</v>
+        <v>0.9690977045204991</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9818559991406561</v>
+        <v>0.9818559991406545</v>
       </c>
       <c r="D5">
-        <v>1.003463595365296</v>
+        <v>1.003463595365295</v>
       </c>
       <c r="E5">
-        <v>0.9892140049455117</v>
+        <v>0.9892140049455102</v>
       </c>
       <c r="F5">
-        <v>0.9625680249952016</v>
+        <v>0.9625680249952004</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037286566768057</v>
+        <v>1.037286566768056</v>
       </c>
       <c r="J5">
-        <v>1.001267128658544</v>
+        <v>1.001267128658542</v>
       </c>
       <c r="K5">
-        <v>1.013296841077195</v>
+        <v>1.013296841077194</v>
       </c>
       <c r="L5">
-        <v>0.9992164568651711</v>
+        <v>0.9992164568651695</v>
       </c>
       <c r="M5">
-        <v>0.9729036909213095</v>
+        <v>0.9729036909213081</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9823984509615941</v>
+        <v>0.9823984509615927</v>
       </c>
       <c r="D6">
-        <v>1.003884348266585</v>
+        <v>1.003884348266583</v>
       </c>
       <c r="E6">
-        <v>0.9897317350543714</v>
+        <v>0.9897317350543703</v>
       </c>
       <c r="F6">
-        <v>0.9632485282919596</v>
+        <v>0.9632485282919577</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037476044448899</v>
       </c>
       <c r="J6">
-        <v>1.00171693902718</v>
+        <v>1.001716939027179</v>
       </c>
       <c r="K6">
-        <v>1.01367517802404</v>
+        <v>1.013675178024039</v>
       </c>
       <c r="L6">
-        <v>0.9996896987322238</v>
+        <v>0.9996896987322225</v>
       </c>
       <c r="M6">
-        <v>0.973535727221902</v>
+        <v>0.9735357272219002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,13 +629,13 @@
         <v>1.036159528970081</v>
       </c>
       <c r="J7">
-        <v>0.9985947837418639</v>
+        <v>0.9985947837418638</v>
       </c>
       <c r="K7">
         <v>1.011048918513692</v>
       </c>
       <c r="L7">
-        <v>0.9964054416941071</v>
+        <v>0.9964054416941068</v>
       </c>
       <c r="M7">
         <v>0.969149038349889</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9619774633233144</v>
+        <v>0.9619774633233168</v>
       </c>
       <c r="D8">
-        <v>0.9880537417999751</v>
+        <v>0.9880537417999771</v>
       </c>
       <c r="E8">
-        <v>0.9702566474670247</v>
+        <v>0.9702566474670266</v>
       </c>
       <c r="F8">
-        <v>0.9375997608616925</v>
+        <v>0.9375997608616948</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030287278681237</v>
+        <v>1.030287278681238</v>
       </c>
       <c r="J8">
-        <v>0.9847492054796952</v>
+        <v>0.9847492054796974</v>
       </c>
       <c r="K8">
-        <v>0.9993980018237669</v>
+        <v>0.9993980018237689</v>
       </c>
       <c r="L8">
-        <v>0.981855175686467</v>
+        <v>0.9818551756864689</v>
       </c>
       <c r="M8">
-        <v>0.9496970240190407</v>
+        <v>0.9496970240190428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9281086322622953</v>
+        <v>0.9281086322622942</v>
       </c>
       <c r="D9">
-        <v>0.9618613898787941</v>
+        <v>0.9618613898787933</v>
       </c>
       <c r="E9">
-        <v>0.9380260521248358</v>
+        <v>0.9380260521248345</v>
       </c>
       <c r="F9">
-        <v>0.8948329145281473</v>
+        <v>0.8948329145281462</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.018169665969713</v>
       </c>
       <c r="J9">
-        <v>0.9564830627354614</v>
+        <v>0.9564830627354604</v>
       </c>
       <c r="K9">
-        <v>0.9756051098749017</v>
+        <v>0.9756051098749008</v>
       </c>
       <c r="L9">
-        <v>0.9522115692302727</v>
+        <v>0.9522115692302713</v>
       </c>
       <c r="M9">
-        <v>0.9098987040182276</v>
+        <v>0.9098987040182266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9010066763455875</v>
+        <v>0.9010066763455887</v>
       </c>
       <c r="D10">
-        <v>0.9409850800127423</v>
+        <v>0.9409850800127433</v>
       </c>
       <c r="E10">
-        <v>0.9122988297442755</v>
+        <v>0.9122988297442763</v>
       </c>
       <c r="F10">
-        <v>0.8602820820221462</v>
+        <v>0.8602820820221476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.008358721284557</v>
+        <v>1.008358721284558</v>
       </c>
       <c r="J10">
-        <v>0.9337841052495387</v>
+        <v>0.9337841052495398</v>
       </c>
       <c r="K10">
-        <v>0.9565083984376955</v>
+        <v>0.9565083984376966</v>
       </c>
       <c r="L10">
-        <v>0.9284552645197763</v>
+        <v>0.9284552645197774</v>
       </c>
       <c r="M10">
-        <v>0.8777333798014602</v>
+        <v>0.8777333798014617</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8876441026218883</v>
+        <v>0.8876441026218906</v>
       </c>
       <c r="D11">
-        <v>0.9307258112397377</v>
+        <v>0.9307258112397396</v>
       </c>
       <c r="E11">
-        <v>0.899635557476103</v>
+        <v>0.8996355574761051</v>
       </c>
       <c r="F11">
-        <v>0.8430980522667787</v>
+        <v>0.843098052266781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003497684150693</v>
+        <v>1.003497684150694</v>
       </c>
       <c r="J11">
-        <v>0.9225729746718333</v>
+        <v>0.9225729746718355</v>
       </c>
       <c r="K11">
-        <v>0.9470841022510866</v>
+        <v>0.9470841022510886</v>
       </c>
       <c r="L11">
-        <v>0.9167356573836825</v>
+        <v>0.9167356573836847</v>
       </c>
       <c r="M11">
-        <v>0.8617406053573882</v>
+        <v>0.8617406053573902</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.882358494818936</v>
+        <v>0.882358494818934</v>
       </c>
       <c r="D12">
-        <v>0.9266745466367907</v>
+        <v>0.9266745466367892</v>
       </c>
       <c r="E12">
-        <v>0.8946305553545864</v>
+        <v>0.8946305553545847</v>
       </c>
       <c r="F12">
-        <v>0.8362684145098371</v>
+        <v>0.8362684145098348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.001571782137679</v>
+        <v>1.001571782137678</v>
       </c>
       <c r="J12">
-        <v>0.9181354017802651</v>
+        <v>0.9181354017802631</v>
       </c>
       <c r="K12">
-        <v>0.9433556210496938</v>
+        <v>0.9433556210496922</v>
       </c>
       <c r="L12">
-        <v>0.9120991536738531</v>
+        <v>0.9120991536738514</v>
       </c>
       <c r="M12">
-        <v>0.8553863150967987</v>
+        <v>0.8553863150967967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8835085527521382</v>
+        <v>0.8835085527521381</v>
       </c>
       <c r="D13">
         <v>0.9275556917677142</v>
       </c>
       <c r="E13">
-        <v>0.8957193640910528</v>
+        <v>0.8957193640910527</v>
       </c>
       <c r="F13">
-        <v>0.8377561003012991</v>
+        <v>0.8377561003012988</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.001990955081604</v>
       </c>
       <c r="J13">
-        <v>0.9191010766326535</v>
+        <v>0.9191010766326536</v>
       </c>
       <c r="K13">
         <v>0.9441668922962563</v>
       </c>
       <c r="L13">
-        <v>0.9131080084554259</v>
+        <v>0.9131080084554258</v>
       </c>
       <c r="M13">
-        <v>0.8567703463127158</v>
+        <v>0.8567703463127155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8872143592165234</v>
+        <v>0.8872143592165195</v>
       </c>
       <c r="D14">
-        <v>0.9303962769558016</v>
+        <v>0.9303962769557984</v>
       </c>
       <c r="E14">
-        <v>0.8992285434878611</v>
+        <v>0.8992285434878574</v>
       </c>
       <c r="F14">
-        <v>0.8425434961803738</v>
+        <v>0.8425434961803693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003341158420619</v>
+        <v>1.003341158420617</v>
       </c>
       <c r="J14">
-        <v>0.9222122401905641</v>
+        <v>0.9222122401905604</v>
       </c>
       <c r="K14">
-        <v>0.9467809691536454</v>
+        <v>0.946780969153642</v>
       </c>
       <c r="L14">
-        <v>0.9163587031272679</v>
+        <v>0.9163587031272641</v>
       </c>
       <c r="M14">
-        <v>0.8612246000819487</v>
+        <v>0.8612246000819445</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8894519412695723</v>
+        <v>0.8894519412695718</v>
       </c>
       <c r="D15">
-        <v>0.9321123753468047</v>
+        <v>0.9321123753468042</v>
       </c>
       <c r="E15">
-        <v>0.9013479427421336</v>
+        <v>0.9013479427421331</v>
       </c>
       <c r="F15">
-        <v>0.8454295859517854</v>
+        <v>0.8454295859517847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.00415603390448</v>
+        <v>1.004156033904479</v>
       </c>
       <c r="J15">
-        <v>0.9240903884713152</v>
+        <v>0.9240903884713145</v>
       </c>
       <c r="K15">
-        <v>0.9483592959173803</v>
+        <v>0.9483592959173798</v>
       </c>
       <c r="L15">
-        <v>0.9183213938057581</v>
+        <v>0.9183213938057575</v>
       </c>
       <c r="M15">
-        <v>0.8639101426786817</v>
+        <v>0.863910142678681</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9018534198049378</v>
+        <v>0.9018534198049404</v>
       </c>
       <c r="D16">
-        <v>0.9416359760320587</v>
+        <v>0.9416359760320606</v>
       </c>
       <c r="E16">
-        <v>0.9131017442776256</v>
+        <v>0.9131017442776279</v>
       </c>
       <c r="F16">
-        <v>0.8613673106148283</v>
+        <v>0.8613673106148311</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.008666311202522</v>
+        <v>1.008666311202523</v>
       </c>
       <c r="J16">
-        <v>0.9344941288561974</v>
+        <v>0.9344941288561998</v>
       </c>
       <c r="K16">
-        <v>0.9571054596923242</v>
+        <v>0.957105459692326</v>
       </c>
       <c r="L16">
-        <v>0.9291977835183196</v>
+        <v>0.9291977835183218</v>
       </c>
       <c r="M16">
-        <v>0.8787435534473703</v>
+        <v>0.8787435534473729</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9091527142966097</v>
+        <v>0.9091527142966148</v>
       </c>
       <c r="D17">
-        <v>0.9472507408751499</v>
+        <v>0.9472507408751538</v>
       </c>
       <c r="E17">
-        <v>0.9200255822333026</v>
+        <v>0.9200255822333075</v>
       </c>
       <c r="F17">
-        <v>0.8707058208407411</v>
+        <v>0.870705820840747</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011315354703187</v>
+        <v>1.011315354703189</v>
       </c>
       <c r="J17">
-        <v>0.9406127511594958</v>
+        <v>0.9406127511595006</v>
       </c>
       <c r="K17">
-        <v>0.9622515033607296</v>
+        <v>0.9622515033607336</v>
       </c>
       <c r="L17">
-        <v>0.9355979290542649</v>
+        <v>0.9355979290542699</v>
       </c>
       <c r="M17">
-        <v>0.8874367948965429</v>
+        <v>0.8874367948965486</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9132598870559223</v>
+        <v>0.9132598870559212</v>
       </c>
       <c r="D18">
-        <v>0.9504129360610509</v>
+        <v>0.9504129360610499</v>
       </c>
       <c r="E18">
-        <v>0.9239233486262813</v>
+        <v>0.92392334862628</v>
       </c>
       <c r="F18">
-        <v>0.8759479579347148</v>
+        <v>0.8759479579347137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012803772649886</v>
+        <v>1.012803772649885</v>
       </c>
       <c r="J18">
-        <v>0.9440538574519693</v>
+        <v>0.9440538574519682</v>
       </c>
       <c r="K18">
-        <v>0.9651462639201547</v>
+        <v>0.9651462639201536</v>
       </c>
       <c r="L18">
-        <v>0.9391985657966004</v>
+        <v>0.9391985657965993</v>
       </c>
       <c r="M18">
-        <v>0.8923170486454171</v>
+        <v>0.8923170486454158</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9146366199274354</v>
+        <v>0.9146366199274308</v>
       </c>
       <c r="D19">
-        <v>0.9514733588144404</v>
+        <v>0.9514733588144364</v>
       </c>
       <c r="E19">
-        <v>0.925230185513524</v>
+        <v>0.9252301855135195</v>
       </c>
       <c r="F19">
-        <v>0.8777032293774319</v>
+        <v>0.8777032293774263</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013302318233656</v>
+        <v>1.013302318233654</v>
       </c>
       <c r="J19">
-        <v>0.9452070313827501</v>
+        <v>0.9452070313827455</v>
       </c>
       <c r="K19">
-        <v>0.9661164400205795</v>
+        <v>0.9661164400205755</v>
       </c>
       <c r="L19">
-        <v>0.9404053992758317</v>
+        <v>0.9404053992758272</v>
       </c>
       <c r="M19">
-        <v>0.8939511803810779</v>
+        <v>0.8939511803810728</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9083855698643405</v>
+        <v>0.9083855698643418</v>
       </c>
       <c r="D20">
-        <v>0.9466603266043472</v>
+        <v>0.9466603266043485</v>
       </c>
       <c r="E20">
-        <v>0.9192976987795861</v>
+        <v>0.9192976987795879</v>
       </c>
       <c r="F20">
-        <v>0.8697257179377872</v>
+        <v>0.869725717937789</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.011037166893203</v>
       </c>
       <c r="J20">
-        <v>0.9399698745439211</v>
+        <v>0.9399698745439228</v>
       </c>
       <c r="K20">
-        <v>0.9617107444757784</v>
+        <v>0.9617107444757796</v>
       </c>
       <c r="L20">
-        <v>0.9349253455984783</v>
+        <v>0.93492534559848</v>
       </c>
       <c r="M20">
-        <v>0.8865243734338359</v>
+        <v>0.8865243734338376</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8861328116711553</v>
+        <v>0.8861328116711552</v>
       </c>
       <c r="D21">
-        <v>0.9295670440147235</v>
+        <v>0.9295670440147232</v>
       </c>
       <c r="E21">
-        <v>0.8982042662471739</v>
+        <v>0.8982042662471735</v>
       </c>
       <c r="F21">
-        <v>0.841147270250328</v>
+        <v>0.8411472702503275</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.002947178226262</v>
       </c>
       <c r="J21">
-        <v>0.9213043218352904</v>
+        <v>0.9213043218352903</v>
       </c>
       <c r="K21">
-        <v>0.9460180572789539</v>
+        <v>0.9460180572789537</v>
       </c>
       <c r="L21">
-        <v>0.9154100000291173</v>
+        <v>0.915410000029117</v>
       </c>
       <c r="M21">
-        <v>0.8599254700519154</v>
+        <v>0.8599254700519149</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8702027717045746</v>
+        <v>0.8702027717045744</v>
       </c>
       <c r="D22">
         <v>0.9173731133261017</v>
       </c>
       <c r="E22">
-        <v>0.8831288669695121</v>
+        <v>0.8831288669695118</v>
       </c>
       <c r="F22">
-        <v>0.8204832265765964</v>
+        <v>0.8204832265765959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9971374924623083</v>
+        <v>0.9971374924623086</v>
       </c>
       <c r="J22">
-        <v>0.9079242163622151</v>
+        <v>0.9079242163622148</v>
       </c>
       <c r="K22">
-        <v>0.9347806308186966</v>
+        <v>0.9347806308186967</v>
       </c>
       <c r="L22">
-        <v>0.9014350504046336</v>
+        <v>0.9014350504046333</v>
       </c>
       <c r="M22">
-        <v>0.8407054137884522</v>
+        <v>0.8407054137884519</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8788697191111415</v>
+        <v>0.8788697191111418</v>
       </c>
       <c r="D23">
-        <v>0.9240027145820128</v>
+        <v>0.9240027145820132</v>
       </c>
       <c r="E23">
-        <v>0.8913282462898326</v>
+        <v>0.891328246289833</v>
       </c>
       <c r="F23">
-        <v>0.8317495345040327</v>
+        <v>0.8317495345040329</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.000299785323427</v>
       </c>
       <c r="J23">
-        <v>0.9152055188446585</v>
+        <v>0.9152055188446586</v>
       </c>
       <c r="K23">
-        <v>0.9408945414620506</v>
+        <v>0.9408945414620508</v>
       </c>
       <c r="L23">
-        <v>0.9090386324640447</v>
+        <v>0.9090386324640449</v>
       </c>
       <c r="M23">
-        <v>0.8511826987804688</v>
+        <v>0.8511826987804691</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9087326688238391</v>
+        <v>0.9087326688238375</v>
       </c>
       <c r="D24">
-        <v>0.9469274540716544</v>
+        <v>0.9469274540716535</v>
       </c>
       <c r="E24">
-        <v>0.919627028110525</v>
+        <v>0.9196270281105238</v>
       </c>
       <c r="F24">
-        <v>0.8701692096525264</v>
+        <v>0.8701692096525248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011163041353191</v>
+        <v>1.01116304135319</v>
       </c>
       <c r="J24">
-        <v>0.9402607532146351</v>
+        <v>0.940260753214634</v>
       </c>
       <c r="K24">
-        <v>0.9619554165895904</v>
+        <v>0.9619554165895893</v>
       </c>
       <c r="L24">
-        <v>0.9352296617976589</v>
+        <v>0.9352296617976577</v>
       </c>
       <c r="M24">
-        <v>0.8869372386501874</v>
+        <v>0.8869372386501858</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375242123261519</v>
+        <v>0.9375242123261532</v>
       </c>
       <c r="D25">
-        <v>0.9691328423857136</v>
+        <v>0.9691328423857146</v>
       </c>
       <c r="E25">
-        <v>0.9469774212779433</v>
+        <v>0.9469774212779448</v>
       </c>
       <c r="F25">
-        <v>0.9067599221198225</v>
+        <v>0.9067599221198241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021557592274078</v>
+        <v>1.021557592274079</v>
       </c>
       <c r="J25">
-        <v>0.9643539586581462</v>
+        <v>0.9643539586581475</v>
       </c>
       <c r="K25">
-        <v>0.9822300083040235</v>
+        <v>0.9822300083040245</v>
       </c>
       <c r="L25">
-        <v>0.9604586742695214</v>
+        <v>0.9604586742695228</v>
       </c>
       <c r="M25">
-        <v>0.9210014928856041</v>
+        <v>0.9210014928856056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9574227723472332</v>
+        <v>0.9575349431139782</v>
       </c>
       <c r="D2">
-        <v>0.9845260758594492</v>
+        <v>0.9846152424869277</v>
       </c>
       <c r="E2">
-        <v>0.9659172030175498</v>
+        <v>0.9660284456767358</v>
       </c>
       <c r="F2">
-        <v>0.9318679616624722</v>
+        <v>0.93198689737374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028670062012038</v>
+        <v>1.028715268956516</v>
       </c>
       <c r="J2">
-        <v>0.9809560703824779</v>
+        <v>0.9810644572881299</v>
       </c>
       <c r="K2">
-        <v>0.9962052810676697</v>
+        <v>0.9962931556267024</v>
       </c>
       <c r="L2">
-        <v>0.9778727122523738</v>
+        <v>0.9779822628730579</v>
       </c>
       <c r="M2">
-        <v>0.9443658228179618</v>
+        <v>0.9444827752272721</v>
+      </c>
+      <c r="N2">
+        <v>0.9818414620918872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9705733280881478</v>
+        <v>0.9706628886167821</v>
       </c>
       <c r="D3">
-        <v>0.9947148345102791</v>
+        <v>0.9947861766300365</v>
       </c>
       <c r="E3">
-        <v>0.9784505372360577</v>
+        <v>0.9785395043851757</v>
       </c>
       <c r="F3">
-        <v>0.948404901434312</v>
+        <v>0.9484991687405245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033326452685835</v>
+        <v>1.033362674299526</v>
       </c>
       <c r="J3">
-        <v>0.9918996570710192</v>
+        <v>0.9919865685628281</v>
       </c>
       <c r="K3">
-        <v>1.005415789683861</v>
+        <v>1.005486206870422</v>
       </c>
       <c r="L3">
-        <v>0.9893667806964522</v>
+        <v>0.9894545457238895</v>
       </c>
       <c r="M3">
-        <v>0.9597434809229278</v>
+        <v>0.9598363700806785</v>
+      </c>
+      <c r="N3">
+        <v>0.9903405291884708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9785905626958246</v>
+        <v>0.9786671507229323</v>
       </c>
       <c r="D4">
-        <v>1.000930978766011</v>
+        <v>1.000992061087557</v>
       </c>
       <c r="E4">
-        <v>0.986097854378956</v>
+        <v>0.9861740077427876</v>
       </c>
       <c r="F4">
-        <v>0.9584707964348324</v>
+        <v>0.9585510725972248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036144103546654</v>
+        <v>1.036175143748259</v>
       </c>
       <c r="J4">
-        <v>0.9985582451420852</v>
+        <v>0.9986327557759503</v>
       </c>
       <c r="K4">
-        <v>1.011018180666108</v>
+        <v>1.011078527534737</v>
       </c>
       <c r="L4">
-        <v>0.996367013367218</v>
+        <v>0.996442215142388</v>
       </c>
       <c r="M4">
-        <v>0.9690977045204991</v>
+        <v>0.9691769036433608</v>
+      </c>
+      <c r="N4">
+        <v>0.9954924756031579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9818559991406545</v>
+        <v>0.9819274642181139</v>
       </c>
       <c r="D5">
-        <v>1.003463595365295</v>
+        <v>1.003520619257178</v>
       </c>
       <c r="E5">
-        <v>0.9892140049455102</v>
+        <v>0.9892850912473092</v>
       </c>
       <c r="F5">
-        <v>0.9625680249952004</v>
+        <v>0.9626428082316328</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037286566768056</v>
+        <v>1.037315555289835</v>
       </c>
       <c r="J5">
-        <v>1.001267128658542</v>
+        <v>1.001336725520275</v>
       </c>
       <c r="K5">
-        <v>1.013296841077194</v>
+        <v>1.013353199782139</v>
       </c>
       <c r="L5">
-        <v>0.9992164568651695</v>
+        <v>0.999286684036549</v>
       </c>
       <c r="M5">
-        <v>0.9729036909213081</v>
+        <v>0.9729775066863978</v>
+      </c>
+      <c r="N5">
+        <v>0.997583747723488</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9823984509615927</v>
+        <v>0.9824690736491313</v>
       </c>
       <c r="D6">
-        <v>1.003884348266583</v>
+        <v>1.003940704444165</v>
       </c>
       <c r="E6">
-        <v>0.9897317350543703</v>
+        <v>0.989801987786228</v>
       </c>
       <c r="F6">
-        <v>0.9632485282919577</v>
+        <v>0.963322410043281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037476044448899</v>
+        <v>1.037504695298869</v>
       </c>
       <c r="J6">
-        <v>1.001716939027179</v>
+        <v>1.001785726981699</v>
       </c>
       <c r="K6">
-        <v>1.013675178024039</v>
+        <v>1.013730880313357</v>
       </c>
       <c r="L6">
-        <v>0.9996896987322225</v>
+        <v>0.9997591071768517</v>
       </c>
       <c r="M6">
-        <v>0.9735357272219002</v>
+        <v>0.9736086590102405</v>
+      </c>
+      <c r="N6">
+        <v>0.9979307274628979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.978634593074862</v>
+        <v>0.9787111114245293</v>
       </c>
       <c r="D7">
-        <v>1.000965125318445</v>
+        <v>1.001026152466881</v>
       </c>
       <c r="E7">
-        <v>0.9861398664990102</v>
+        <v>0.986215950971414</v>
       </c>
       <c r="F7">
-        <v>0.9585260515926678</v>
+        <v>0.9586062529233147</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036159528970081</v>
+        <v>1.036190541287909</v>
       </c>
       <c r="J7">
-        <v>0.9985947837418638</v>
+        <v>0.9986692276069861</v>
       </c>
       <c r="K7">
-        <v>1.011048918513692</v>
+        <v>1.011109211182621</v>
       </c>
       <c r="L7">
-        <v>0.9964054416941068</v>
+        <v>0.9964805758604153</v>
       </c>
       <c r="M7">
-        <v>0.969149038349889</v>
+        <v>0.9692281641668282</v>
+      </c>
+      <c r="N7">
+        <v>0.995520702243222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9619774633233168</v>
+        <v>0.9620816037535315</v>
       </c>
       <c r="D8">
-        <v>0.9880537417999771</v>
+        <v>0.9881365861027154</v>
       </c>
       <c r="E8">
-        <v>0.9702566474670266</v>
+        <v>0.9703599870285056</v>
       </c>
       <c r="F8">
-        <v>0.9375997608616948</v>
+        <v>0.9377098939088488</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030287278681238</v>
+        <v>1.030329300786884</v>
       </c>
       <c r="J8">
-        <v>0.9847492054796974</v>
+        <v>0.9848499847202705</v>
       </c>
       <c r="K8">
-        <v>0.9993980018237689</v>
+        <v>0.9994796895618887</v>
       </c>
       <c r="L8">
-        <v>0.9818551756864689</v>
+        <v>0.981957004673259</v>
       </c>
       <c r="M8">
-        <v>0.9496970240190428</v>
+        <v>0.9498054003071884</v>
+      </c>
+      <c r="N8">
+        <v>0.9847914317127858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9281086322622942</v>
+        <v>0.9282784891825951</v>
       </c>
       <c r="D9">
-        <v>0.9618613898787933</v>
+        <v>0.9619957153849692</v>
       </c>
       <c r="E9">
-        <v>0.9380260521248345</v>
+        <v>0.9381938086099538</v>
       </c>
       <c r="F9">
-        <v>0.8948329145281462</v>
+        <v>0.8950164319569391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018169665969713</v>
+        <v>1.018237560199122</v>
       </c>
       <c r="J9">
-        <v>0.9564830627354604</v>
+        <v>0.9566455143259881</v>
       </c>
       <c r="K9">
-        <v>0.9756051098749008</v>
+        <v>0.9757370261934042</v>
       </c>
       <c r="L9">
-        <v>0.9522115692302713</v>
+        <v>0.9523761136141168</v>
       </c>
       <c r="M9">
-        <v>0.9098987040182266</v>
+        <v>0.9100782427173332</v>
+      </c>
+      <c r="N9">
+        <v>0.9627223574397935</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9010066763455887</v>
+        <v>0.9012419374030011</v>
       </c>
       <c r="D10">
-        <v>0.9409850800127433</v>
+        <v>0.9411701031128186</v>
       </c>
       <c r="E10">
-        <v>0.9122988297442763</v>
+        <v>0.9125301635288086</v>
       </c>
       <c r="F10">
-        <v>0.8602820820221476</v>
+        <v>0.8605416699904732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.008358721284558</v>
+        <v>1.008451983945479</v>
       </c>
       <c r="J10">
-        <v>0.9337841052495398</v>
+        <v>0.9340067794596201</v>
       </c>
       <c r="K10">
-        <v>0.9565083984376966</v>
+        <v>0.9566895038004332</v>
       </c>
       <c r="L10">
-        <v>0.9284552645197774</v>
+        <v>0.9286812798739892</v>
       </c>
       <c r="M10">
-        <v>0.8777333798014617</v>
+        <v>0.8779859767106897</v>
+      </c>
+      <c r="N10">
+        <v>0.9448919916978902</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8876441026218906</v>
+        <v>0.8879174868871437</v>
       </c>
       <c r="D11">
-        <v>0.9307258112397396</v>
+        <v>0.9309401675495231</v>
       </c>
       <c r="E11">
-        <v>0.8996355574761051</v>
+        <v>0.8999037382375535</v>
       </c>
       <c r="F11">
-        <v>0.843098052266781</v>
+        <v>0.843403345608007</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003497684150694</v>
+        <v>1.003605587604095</v>
       </c>
       <c r="J11">
-        <v>0.9225729746718355</v>
+        <v>0.9228303169021916</v>
       </c>
       <c r="K11">
-        <v>0.9470841022510886</v>
+        <v>0.9472935735345357</v>
       </c>
       <c r="L11">
-        <v>0.9167356573836847</v>
+        <v>0.9169971436940125</v>
       </c>
       <c r="M11">
-        <v>0.8617406053573902</v>
+        <v>0.8620368050957754</v>
+      </c>
+      <c r="N11">
+        <v>0.9360639049225585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.882358494818934</v>
+        <v>0.8826483037749165</v>
       </c>
       <c r="D12">
-        <v>0.9266745466367892</v>
+        <v>0.9269014961805563</v>
       </c>
       <c r="E12">
-        <v>0.8946305553545847</v>
+        <v>0.8949145683875356</v>
       </c>
       <c r="F12">
-        <v>0.8362684145098348</v>
+        <v>0.8365937005739984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.001571782137678</v>
+        <v>1.001685964263414</v>
       </c>
       <c r="J12">
-        <v>0.9181354017802631</v>
+        <v>0.9184075951487833</v>
       </c>
       <c r="K12">
-        <v>0.9433556210496922</v>
+        <v>0.9435772529057003</v>
       </c>
       <c r="L12">
-        <v>0.9120991536738514</v>
+        <v>0.9123758512961964</v>
       </c>
       <c r="M12">
-        <v>0.8553863150967967</v>
+        <v>0.8557015267609721</v>
+      </c>
+      <c r="N12">
+        <v>0.9325670774646058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8835085527521381</v>
+        <v>0.8837947167436103</v>
       </c>
       <c r="D13">
-        <v>0.9275556917677142</v>
+        <v>0.9277798488261481</v>
       </c>
       <c r="E13">
-        <v>0.8957193640910527</v>
+        <v>0.8959998657285058</v>
       </c>
       <c r="F13">
-        <v>0.8377561003012988</v>
+        <v>0.8380769341329688</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.001990955081604</v>
+        <v>1.002103745271681</v>
       </c>
       <c r="J13">
-        <v>0.9191010766326536</v>
+        <v>0.9193699783790221</v>
       </c>
       <c r="K13">
-        <v>0.9441668922962563</v>
+        <v>0.9443858284353447</v>
       </c>
       <c r="L13">
-        <v>0.9131080084554258</v>
+        <v>0.9133813338405217</v>
       </c>
       <c r="M13">
-        <v>0.8567703463127155</v>
+        <v>0.8570813272155552</v>
+      </c>
+      <c r="N13">
+        <v>0.9333281285653945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8872143592165195</v>
+        <v>0.8874890482625362</v>
       </c>
       <c r="D14">
-        <v>0.9303962769557984</v>
+        <v>0.9306116346178187</v>
       </c>
       <c r="E14">
-        <v>0.8992285434878574</v>
+        <v>0.8994979828680217</v>
       </c>
       <c r="F14">
-        <v>0.8425434961803693</v>
+        <v>0.8428503711820655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003341158420617</v>
+        <v>1.003449561264846</v>
       </c>
       <c r="J14">
-        <v>0.9222122401905604</v>
+        <v>0.922470763977186</v>
       </c>
       <c r="K14">
-        <v>0.946780969153642</v>
+        <v>0.9469914077440312</v>
       </c>
       <c r="L14">
-        <v>0.9163587031272641</v>
+        <v>0.9166213993108389</v>
       </c>
       <c r="M14">
-        <v>0.8612246000819445</v>
+        <v>0.8615223051889317</v>
+      </c>
+      <c r="N14">
+        <v>0.9357796886057181</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8894519412695718</v>
+        <v>0.8897198936802346</v>
       </c>
       <c r="D15">
-        <v>0.9321123753468042</v>
+        <v>0.9323225612014621</v>
       </c>
       <c r="E15">
-        <v>0.9013479427421331</v>
+        <v>0.9016108821161521</v>
       </c>
       <c r="F15">
-        <v>0.8454295859517847</v>
+        <v>0.8457283070311947</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.004156033904479</v>
+        <v>1.004261857211104</v>
       </c>
       <c r="J15">
-        <v>0.9240903884713145</v>
+        <v>0.9243428084444014</v>
       </c>
       <c r="K15">
-        <v>0.9483592959173798</v>
+        <v>0.9485647378493119</v>
       </c>
       <c r="L15">
-        <v>0.9183213938057575</v>
+        <v>0.9185778405400223</v>
       </c>
       <c r="M15">
-        <v>0.863910142678681</v>
+        <v>0.864200084722652</v>
+      </c>
+      <c r="N15">
+        <v>0.9372593539951095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9018534198049404</v>
+        <v>0.9020864131232157</v>
       </c>
       <c r="D16">
-        <v>0.9416359760320606</v>
+        <v>0.9418192494776467</v>
       </c>
       <c r="E16">
-        <v>0.9131017442776279</v>
+        <v>0.9133308816291328</v>
       </c>
       <c r="F16">
-        <v>0.8613673106148311</v>
+        <v>0.8616242110877298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.008666311202523</v>
+        <v>1.008758699802637</v>
       </c>
       <c r="J16">
-        <v>0.9344941288561998</v>
+        <v>0.9347147315375531</v>
       </c>
       <c r="K16">
-        <v>0.957105459692326</v>
+        <v>0.9572848711326351</v>
       </c>
       <c r="L16">
-        <v>0.9291977835183218</v>
+        <v>0.9294216811662399</v>
       </c>
       <c r="M16">
-        <v>0.8787435534473729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8789935800831477</v>
+      </c>
+      <c r="N16">
+        <v>0.9454507131587668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9091527142966148</v>
+        <v>0.9093668137521566</v>
       </c>
       <c r="D17">
-        <v>0.9472507408751538</v>
+        <v>0.9474194149371649</v>
       </c>
       <c r="E17">
-        <v>0.9200255822333075</v>
+        <v>0.920236398490338</v>
       </c>
       <c r="F17">
-        <v>0.870705820840747</v>
+        <v>0.8709404685285108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011315354703189</v>
+        <v>1.011400446276307</v>
       </c>
       <c r="J17">
-        <v>0.9406127511595006</v>
+        <v>0.9408160509696289</v>
       </c>
       <c r="K17">
-        <v>0.9622515033607336</v>
+        <v>0.9624167709635817</v>
       </c>
       <c r="L17">
-        <v>0.9355979290542699</v>
+        <v>0.9358041466509235</v>
       </c>
       <c r="M17">
-        <v>0.8874367948965486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8876655103137809</v>
+      </c>
+      <c r="N17">
+        <v>0.9502632148875896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9132598870559212</v>
+        <v>0.9134638413475169</v>
       </c>
       <c r="D18">
-        <v>0.9504129360610499</v>
+        <v>0.9505737542707117</v>
       </c>
       <c r="E18">
-        <v>0.92392334862628</v>
+        <v>0.9241243110811974</v>
       </c>
       <c r="F18">
-        <v>0.8759479579347137</v>
+        <v>0.8761707594058576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012803772649885</v>
+        <v>1.012884934828352</v>
       </c>
       <c r="J18">
-        <v>0.9440538574519682</v>
+        <v>0.9442478328926208</v>
       </c>
       <c r="K18">
-        <v>0.9651462639201536</v>
+        <v>0.9653039134147485</v>
       </c>
       <c r="L18">
-        <v>0.9391985657965993</v>
+        <v>0.9393952623256734</v>
       </c>
       <c r="M18">
-        <v>0.8923170486454158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8925343972620867</v>
+      </c>
+      <c r="N18">
+        <v>0.9529677846439933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9146366199274308</v>
+        <v>0.914837247147757</v>
       </c>
       <c r="D19">
-        <v>0.9514733588144364</v>
+        <v>0.9516315981262885</v>
       </c>
       <c r="E19">
-        <v>0.9252301855135195</v>
+        <v>0.9254279139097923</v>
       </c>
       <c r="F19">
-        <v>0.8777032293774263</v>
+        <v>0.8779221616143212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013302318233654</v>
+        <v>1.013382190014285</v>
       </c>
       <c r="J19">
-        <v>0.9452070313827455</v>
+        <v>0.9453979436294152</v>
       </c>
       <c r="K19">
-        <v>0.9661164400205755</v>
+        <v>0.9662715874765978</v>
       </c>
       <c r="L19">
-        <v>0.9404053992758272</v>
+        <v>0.9405989690349656</v>
       </c>
       <c r="M19">
-        <v>0.8939511803810728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8941648129564357</v>
+      </c>
+      <c r="N19">
+        <v>0.9538737829868863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9083855698643418</v>
+        <v>0.9086016018136495</v>
       </c>
       <c r="D20">
-        <v>0.9466603266043485</v>
+        <v>0.9468304957461359</v>
       </c>
       <c r="E20">
-        <v>0.9192976987795879</v>
+        <v>0.9195103907274419</v>
       </c>
       <c r="F20">
-        <v>0.869725717937789</v>
+        <v>0.869962630292321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011037166893203</v>
+        <v>1.011123006049254</v>
       </c>
       <c r="J20">
-        <v>0.9399698745439228</v>
+        <v>0.9401749477908267</v>
       </c>
       <c r="K20">
-        <v>0.9617107444757796</v>
+        <v>0.9618774613110681</v>
       </c>
       <c r="L20">
-        <v>0.93492534559848</v>
+        <v>0.9351333745733863</v>
       </c>
       <c r="M20">
-        <v>0.8865243734338376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8867552601103567</v>
+      </c>
+      <c r="N20">
+        <v>0.9497577744074893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8861328116711552</v>
+        <v>0.8864108079818652</v>
       </c>
       <c r="D21">
-        <v>0.9295670440147232</v>
+        <v>0.9297849390952159</v>
       </c>
       <c r="E21">
-        <v>0.8982042662471735</v>
+        <v>0.8984768951794895</v>
       </c>
       <c r="F21">
-        <v>0.8411472702503275</v>
+        <v>0.8414581594248994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.002947178226262</v>
+        <v>1.003056846411258</v>
       </c>
       <c r="J21">
-        <v>0.9213043218352903</v>
+        <v>0.9215658391501884</v>
       </c>
       <c r="K21">
-        <v>0.9460180572789537</v>
+        <v>0.9462309467351528</v>
       </c>
       <c r="L21">
-        <v>0.915410000029117</v>
+        <v>0.9156757617491736</v>
       </c>
       <c r="M21">
-        <v>0.8599254700519149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8602269946914858</v>
+      </c>
+      <c r="N21">
+        <v>0.9350643193325116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8702027717045744</v>
+        <v>0.8705337848938938</v>
       </c>
       <c r="D22">
-        <v>0.9173731133261017</v>
+        <v>0.9176315476108781</v>
       </c>
       <c r="E22">
-        <v>0.8831288669695118</v>
+        <v>0.8834524959114917</v>
       </c>
       <c r="F22">
-        <v>0.8204832265765959</v>
+        <v>0.8208594447840828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9971374924623086</v>
+        <v>0.9972673565646963</v>
       </c>
       <c r="J22">
-        <v>0.9079242163622148</v>
+        <v>0.9082334668412574</v>
       </c>
       <c r="K22">
-        <v>0.9347806308186967</v>
+        <v>0.9350326266275122</v>
       </c>
       <c r="L22">
-        <v>0.9014350504046333</v>
+        <v>0.901749741409395</v>
       </c>
       <c r="M22">
-        <v>0.8407054137884519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8410689065316389</v>
+      </c>
+      <c r="N22">
+        <v>0.9245172738167129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8788697191111418</v>
+        <v>0.8791708399074798</v>
       </c>
       <c r="D23">
-        <v>0.9240027145820132</v>
+        <v>0.9242383225766007</v>
       </c>
       <c r="E23">
-        <v>0.891328246289833</v>
+        <v>0.8916231492364918</v>
       </c>
       <c r="F23">
-        <v>0.8317495345040329</v>
+        <v>0.8320886933528527</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.000299785323427</v>
+        <v>1.000418282182707</v>
       </c>
       <c r="J23">
-        <v>0.9152055188446586</v>
+        <v>0.9154879129665582</v>
       </c>
       <c r="K23">
-        <v>0.9408945414620508</v>
+        <v>0.941124528860164</v>
       </c>
       <c r="L23">
-        <v>0.9090386324640449</v>
+        <v>0.9093257834099192</v>
       </c>
       <c r="M23">
-        <v>0.8511826987804691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8515110822311115</v>
+      </c>
+      <c r="N23">
+        <v>0.9302577498404011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9087326688238375</v>
+        <v>0.9089478249083336</v>
       </c>
       <c r="D24">
-        <v>0.9469274540716535</v>
+        <v>0.9470969456504207</v>
       </c>
       <c r="E24">
-        <v>0.9196270281105238</v>
+        <v>0.9198388699895145</v>
       </c>
       <c r="F24">
-        <v>0.8701692096525248</v>
+        <v>0.8704050952688733</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01116304135319</v>
+        <v>1.011248541717419</v>
       </c>
       <c r="J24">
-        <v>0.940260753214634</v>
+        <v>0.9404650227921267</v>
       </c>
       <c r="K24">
-        <v>0.9619554165895893</v>
+        <v>0.9621214766630422</v>
       </c>
       <c r="L24">
-        <v>0.9352296617976577</v>
+        <v>0.9354368698884569</v>
       </c>
       <c r="M24">
-        <v>0.8869372386501858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8871671410059985</v>
+      </c>
+      <c r="N24">
+        <v>0.9499864743862435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375242123261532</v>
+        <v>0.937674290559424</v>
       </c>
       <c r="D25">
-        <v>0.9691328423857146</v>
+        <v>0.9692517340313612</v>
       </c>
       <c r="E25">
-        <v>0.9469774212779448</v>
+        <v>0.9471258505681313</v>
       </c>
       <c r="F25">
-        <v>0.9067599221198241</v>
+        <v>0.9069210297697194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021557592274079</v>
+        <v>1.02161774377454</v>
       </c>
       <c r="J25">
-        <v>0.9643539586581475</v>
+        <v>0.9644979833477103</v>
       </c>
       <c r="K25">
-        <v>0.9822300083040245</v>
+        <v>0.9823468999232444</v>
       </c>
       <c r="L25">
-        <v>0.9604586742695228</v>
+        <v>0.9606044527545096</v>
       </c>
       <c r="M25">
-        <v>0.9210014928856056</v>
+        <v>0.9211593777943081</v>
+      </c>
+      <c r="N25">
+        <v>0.9688857266557817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.023345058033475</v>
+      </c>
+      <c r="D2">
+        <v>1.034868016099133</v>
+      </c>
+      <c r="E2">
+        <v>1.04014269232787</v>
+      </c>
+      <c r="F2">
+        <v>1.045166162594173</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.052149298274383</v>
+      </c>
+      <c r="J2">
+        <v>1.044849257982641</v>
+      </c>
+      <c r="K2">
+        <v>1.045862051272274</v>
+      </c>
+      <c r="L2">
+        <v>1.051069730470182</v>
+      </c>
+      <c r="M2">
+        <v>1.056030177989903</v>
+      </c>
+      <c r="N2">
+        <v>1.018204335716001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.028509244523658</v>
+      </c>
+      <c r="D3">
+        <v>1.038635710170945</v>
+      </c>
+      <c r="E3">
+        <v>1.044986975525479</v>
+      </c>
+      <c r="F3">
+        <v>1.050306522112383</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.053875468798818</v>
+      </c>
+      <c r="J3">
+        <v>1.048251779336549</v>
+      </c>
+      <c r="K3">
+        <v>1.048797000240218</v>
+      </c>
+      <c r="L3">
+        <v>1.055074864055473</v>
+      </c>
+      <c r="M3">
+        <v>1.060333774942071</v>
+      </c>
+      <c r="N3">
+        <v>1.019385163562462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.031777096797882</v>
+      </c>
+      <c r="D4">
+        <v>1.041022716815551</v>
+      </c>
+      <c r="E4">
+        <v>1.048057668317349</v>
+      </c>
+      <c r="F4">
+        <v>1.053565416669671</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.054958937580877</v>
+      </c>
+      <c r="J4">
+        <v>1.050401448162728</v>
+      </c>
+      <c r="K4">
+        <v>1.050650015012167</v>
+      </c>
+      <c r="L4">
+        <v>1.057608717050151</v>
+      </c>
+      <c r="M4">
+        <v>1.063057638702329</v>
+      </c>
+      <c r="N4">
+        <v>1.02013060933674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.033133955540753</v>
+      </c>
+      <c r="D5">
+        <v>1.042014459910503</v>
+      </c>
+      <c r="E5">
+        <v>1.049333893515806</v>
+      </c>
+      <c r="F5">
+        <v>1.054919994480372</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.055406652375491</v>
+      </c>
+      <c r="J5">
+        <v>1.051293165509068</v>
+      </c>
+      <c r="K5">
+        <v>1.051418364293755</v>
+      </c>
+      <c r="L5">
+        <v>1.058660638095718</v>
+      </c>
+      <c r="M5">
+        <v>1.064188730740474</v>
+      </c>
+      <c r="N5">
+        <v>1.020439683137063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.033360804051196</v>
+      </c>
+      <c r="D6">
+        <v>1.042180301040321</v>
+      </c>
+      <c r="E6">
+        <v>1.049547332496652</v>
+      </c>
+      <c r="F6">
+        <v>1.055146545375421</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.055481376414424</v>
+      </c>
+      <c r="J6">
+        <v>1.051442197314119</v>
+      </c>
+      <c r="K6">
+        <v>1.05154675908734</v>
+      </c>
+      <c r="L6">
+        <v>1.05883649406409</v>
+      </c>
+      <c r="M6">
+        <v>1.064377839275981</v>
+      </c>
+      <c r="N6">
+        <v>1.020491329307892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.031795292896992</v>
+      </c>
+      <c r="D7">
+        <v>1.041036014155215</v>
+      </c>
+      <c r="E7">
+        <v>1.048074778268697</v>
+      </c>
+      <c r="F7">
+        <v>1.053583576534503</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.054964950212653</v>
+      </c>
+      <c r="J7">
+        <v>1.050413409929962</v>
+      </c>
+      <c r="K7">
+        <v>1.050660323128207</v>
+      </c>
+      <c r="L7">
+        <v>1.057622824516174</v>
+      </c>
+      <c r="M7">
+        <v>1.06307280679653</v>
+      </c>
+      <c r="N7">
+        <v>1.020134755947371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.025106019563162</v>
+      </c>
+      <c r="D8">
+        <v>1.036152147684013</v>
+      </c>
+      <c r="E8">
+        <v>1.041793439415867</v>
+      </c>
+      <c r="F8">
+        <v>1.046917695610643</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.052739746254019</v>
+      </c>
+      <c r="J8">
+        <v>1.046010195645603</v>
+      </c>
+      <c r="K8">
+        <v>1.046863708579959</v>
+      </c>
+      <c r="L8">
+        <v>1.052435555879661</v>
+      </c>
+      <c r="M8">
+        <v>1.057497537899071</v>
+      </c>
+      <c r="N8">
+        <v>1.018607351130948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.012720303797382</v>
+      </c>
+      <c r="D9">
+        <v>1.027134845121114</v>
+      </c>
+      <c r="E9">
+        <v>1.030206924170625</v>
+      </c>
+      <c r="F9">
+        <v>1.034625687622945</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.048550752057979</v>
+      </c>
+      <c r="J9">
+        <v>1.037831735523577</v>
+      </c>
+      <c r="K9">
+        <v>1.039802501235913</v>
+      </c>
+      <c r="L9">
+        <v>1.042828214267126</v>
+      </c>
+      <c r="M9">
+        <v>1.047180900540013</v>
+      </c>
+      <c r="N9">
+        <v>1.015766084542729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.004010049150104</v>
+      </c>
+      <c r="D10">
+        <v>1.02081503550977</v>
+      </c>
+      <c r="E10">
+        <v>1.022091140915828</v>
+      </c>
+      <c r="F10">
+        <v>1.026017821424037</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.045560679545102</v>
+      </c>
+      <c r="J10">
+        <v>1.032065464654693</v>
+      </c>
+      <c r="K10">
+        <v>1.034818370271923</v>
+      </c>
+      <c r="L10">
+        <v>1.036072668571697</v>
+      </c>
+      <c r="M10">
+        <v>1.039932685846267</v>
+      </c>
+      <c r="N10">
+        <v>1.01376050473476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.000118429180717</v>
+      </c>
+      <c r="D11">
+        <v>1.01799758757429</v>
+      </c>
+      <c r="E11">
+        <v>1.018473472409638</v>
+      </c>
+      <c r="F11">
+        <v>1.022181174199978</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.044214871840029</v>
+      </c>
+      <c r="J11">
+        <v>1.029486282190369</v>
+      </c>
+      <c r="K11">
+        <v>1.032587893906674</v>
+      </c>
+      <c r="L11">
+        <v>1.033055217111432</v>
+      </c>
+      <c r="M11">
+        <v>1.036696568124384</v>
+      </c>
+      <c r="N11">
+        <v>1.012863013790548</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9986537076102964</v>
+      </c>
+      <c r="D12">
+        <v>1.016938179041474</v>
+      </c>
+      <c r="E12">
+        <v>1.017113174647131</v>
+      </c>
+      <c r="F12">
+        <v>1.020738581743888</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.043706907349114</v>
+      </c>
+      <c r="J12">
+        <v>1.028515154439198</v>
+      </c>
+      <c r="K12">
+        <v>1.031747909210369</v>
+      </c>
+      <c r="L12">
+        <v>1.031919696765132</v>
+      </c>
+      <c r="M12">
+        <v>1.035478964159065</v>
+      </c>
+      <c r="N12">
+        <v>1.012525034241986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.998968784063766</v>
+      </c>
+      <c r="D13">
+        <v>1.017166021015492</v>
+      </c>
+      <c r="E13">
+        <v>1.017405728103739</v>
+      </c>
+      <c r="F13">
+        <v>1.021048832140936</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.04381623943271</v>
+      </c>
+      <c r="J13">
+        <v>1.028724070066304</v>
+      </c>
+      <c r="K13">
+        <v>1.031928619108327</v>
+      </c>
+      <c r="L13">
+        <v>1.032163949455223</v>
+      </c>
+      <c r="M13">
+        <v>1.035740864042639</v>
+      </c>
+      <c r="N13">
+        <v>1.01259774483862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9999977536287743</v>
+      </c>
+      <c r="D14">
+        <v>1.017910283735906</v>
+      </c>
+      <c r="E14">
+        <v>1.018361373069299</v>
+      </c>
+      <c r="F14">
+        <v>1.022062292283247</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044173050401103</v>
+      </c>
+      <c r="J14">
+        <v>1.029406280243931</v>
+      </c>
+      <c r="K14">
+        <v>1.032518698605525</v>
+      </c>
+      <c r="L14">
+        <v>1.032961659738078</v>
+      </c>
+      <c r="M14">
+        <v>1.036596243622636</v>
+      </c>
+      <c r="N14">
+        <v>1.012835171856979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.000629154865742</v>
+      </c>
+      <c r="D15">
+        <v>1.01836711880466</v>
+      </c>
+      <c r="E15">
+        <v>1.01894795557559</v>
+      </c>
+      <c r="F15">
+        <v>1.022684367744132</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.04439181144956</v>
+      </c>
+      <c r="J15">
+        <v>1.029824853049548</v>
+      </c>
+      <c r="K15">
+        <v>1.032880724533366</v>
+      </c>
+      <c r="L15">
+        <v>1.03345118046768</v>
+      </c>
+      <c r="M15">
+        <v>1.037121180331099</v>
+      </c>
+      <c r="N15">
+        <v>1.012980839742669</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.00426569685042</v>
+      </c>
+      <c r="D16">
+        <v>1.021000254653076</v>
+      </c>
+      <c r="E16">
+        <v>1.022328970924817</v>
+      </c>
+      <c r="F16">
+        <v>1.026270054163594</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.045648886922157</v>
+      </c>
+      <c r="J16">
+        <v>1.032234840314908</v>
+      </c>
+      <c r="K16">
+        <v>1.03496482409565</v>
+      </c>
+      <c r="L16">
+        <v>1.036270912655154</v>
+      </c>
+      <c r="M16">
+        <v>1.040145324678844</v>
+      </c>
+      <c r="N16">
+        <v>1.013819435471114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.049999999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.006513874960918</v>
+      </c>
+      <c r="D17">
+        <v>1.022629790732053</v>
+      </c>
+      <c r="E17">
+        <v>1.024421415011551</v>
+      </c>
+      <c r="F17">
+        <v>1.028489255316837</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.046423469854625</v>
+      </c>
+      <c r="J17">
+        <v>1.03372401563289</v>
+      </c>
+      <c r="K17">
+        <v>1.036252340339865</v>
+      </c>
+      <c r="L17">
+        <v>1.038014381818129</v>
+      </c>
+      <c r="M17">
+        <v>1.042015546797979</v>
+      </c>
+      <c r="N17">
+        <v>1.014337516765939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.007813702693984</v>
+      </c>
+      <c r="D18">
+        <v>1.023572514986661</v>
+      </c>
+      <c r="E18">
+        <v>1.025631988647055</v>
+      </c>
+      <c r="F18">
+        <v>1.029773199574807</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.046870370277876</v>
+      </c>
+      <c r="J18">
+        <v>1.034584733423695</v>
+      </c>
+      <c r="K18">
+        <v>1.036996394037032</v>
+      </c>
+      <c r="L18">
+        <v>1.039022477070445</v>
+      </c>
+      <c r="M18">
+        <v>1.043097064182806</v>
+      </c>
+      <c r="N18">
+        <v>1.014636918377013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.008254994280932</v>
+      </c>
+      <c r="D19">
+        <v>1.023892665011413</v>
+      </c>
+      <c r="E19">
+        <v>1.026043110164532</v>
+      </c>
+      <c r="F19">
+        <v>1.030209244818555</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.0470219320508</v>
+      </c>
+      <c r="J19">
+        <v>1.03487689844772</v>
+      </c>
+      <c r="K19">
+        <v>1.03724893928416</v>
+      </c>
+      <c r="L19">
+        <v>1.039364736477795</v>
+      </c>
+      <c r="M19">
+        <v>1.043464273738241</v>
+      </c>
+      <c r="N19">
+        <v>1.014738541087286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.006273864003984</v>
+      </c>
+      <c r="D20">
+        <v>1.02245576428261</v>
+      </c>
+      <c r="E20">
+        <v>1.024197947859131</v>
+      </c>
+      <c r="F20">
+        <v>1.0282522472155</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.046340874101725</v>
+      </c>
+      <c r="J20">
+        <v>1.033565062727563</v>
+      </c>
+      <c r="K20">
+        <v>1.036114923453885</v>
+      </c>
+      <c r="L20">
+        <v>1.03782824440754</v>
+      </c>
+      <c r="M20">
+        <v>1.041815863234993</v>
+      </c>
+      <c r="N20">
+        <v>1.014282221470362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9996952876449647</v>
+      </c>
+      <c r="D21">
+        <v>1.017691478655399</v>
+      </c>
+      <c r="E21">
+        <v>1.018080424218306</v>
+      </c>
+      <c r="F21">
+        <v>1.021764345286818</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.044068204625229</v>
+      </c>
+      <c r="J21">
+        <v>1.029205754283537</v>
+      </c>
+      <c r="K21">
+        <v>1.032345257232743</v>
+      </c>
+      <c r="L21">
+        <v>1.032727166984218</v>
+      </c>
+      <c r="M21">
+        <v>1.036344792973265</v>
+      </c>
+      <c r="N21">
+        <v>1.012765384886804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9954473347625958</v>
+      </c>
+      <c r="D22">
+        <v>1.014621044382672</v>
+      </c>
+      <c r="E22">
+        <v>1.014137880797008</v>
+      </c>
+      <c r="F22">
+        <v>1.017583359065251</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.04259236692245</v>
+      </c>
+      <c r="J22">
+        <v>1.026388657556377</v>
+      </c>
+      <c r="K22">
+        <v>1.029908315429646</v>
+      </c>
+      <c r="L22">
+        <v>1.02943437169088</v>
+      </c>
+      <c r="M22">
+        <v>1.032814352665962</v>
+      </c>
+      <c r="N22">
+        <v>1.011784872617363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9977102629872424</v>
+      </c>
+      <c r="D23">
+        <v>1.016256100383931</v>
+      </c>
+      <c r="E23">
+        <v>1.01623736889446</v>
+      </c>
+      <c r="F23">
+        <v>1.019809803002797</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.043379324892944</v>
+      </c>
+      <c r="J23">
+        <v>1.027889539819408</v>
+      </c>
+      <c r="K23">
+        <v>1.0312067377415</v>
+      </c>
+      <c r="L23">
+        <v>1.031188353766725</v>
+      </c>
+      <c r="M23">
+        <v>1.034694811409061</v>
+      </c>
+      <c r="N23">
+        <v>1.01230728990665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.006382350066008</v>
+      </c>
+      <c r="D24">
+        <v>1.022534423261376</v>
+      </c>
+      <c r="E24">
+        <v>1.024298953609856</v>
+      </c>
+      <c r="F24">
+        <v>1.028359373277949</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.046378210682612</v>
+      </c>
+      <c r="J24">
+        <v>1.033636911041297</v>
+      </c>
+      <c r="K24">
+        <v>1.036177037608221</v>
+      </c>
+      <c r="L24">
+        <v>1.03791237915</v>
+      </c>
+      <c r="M24">
+        <v>1.04190612047457</v>
+      </c>
+      <c r="N24">
+        <v>1.01430721562723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.015998214008188</v>
+      </c>
+      <c r="D25">
+        <v>1.02951790237663</v>
+      </c>
+      <c r="E25">
+        <v>1.033267951703698</v>
+      </c>
+      <c r="F25">
+        <v>1.037872701813244</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.049667156528641</v>
+      </c>
+      <c r="J25">
+        <v>1.039998914322911</v>
+      </c>
+      <c r="K25">
+        <v>1.041674642222703</v>
+      </c>
+      <c r="L25">
+        <v>1.04537087879895</v>
+      </c>
+      <c r="M25">
+        <v>1.049910223686446</v>
+      </c>
+      <c r="N25">
+        <v>1.016519422859467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023345058033475</v>
+        <v>1.053156097523423</v>
       </c>
       <c r="D2">
-        <v>1.034868016099133</v>
+        <v>1.051751861300523</v>
       </c>
       <c r="E2">
-        <v>1.04014269232787</v>
+        <v>1.066659961403967</v>
       </c>
       <c r="F2">
-        <v>1.045166162594173</v>
+        <v>1.073738682599607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052149298274383</v>
+        <v>1.046598637936877</v>
       </c>
       <c r="J2">
-        <v>1.044849257982641</v>
+        <v>1.058174923673622</v>
       </c>
       <c r="K2">
-        <v>1.045862051272274</v>
+        <v>1.054502493799493</v>
       </c>
       <c r="L2">
-        <v>1.051069730470182</v>
+        <v>1.069369913909654</v>
       </c>
       <c r="M2">
-        <v>1.056030177989903</v>
+        <v>1.076429746941927</v>
       </c>
       <c r="N2">
-        <v>1.018204335716001</v>
+        <v>1.023118874588622</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028509244523658</v>
+        <v>1.054234686470764</v>
       </c>
       <c r="D3">
-        <v>1.038635710170945</v>
+        <v>1.052554283269969</v>
       </c>
       <c r="E3">
-        <v>1.044986975525479</v>
+        <v>1.067727661019617</v>
       </c>
       <c r="F3">
-        <v>1.050306522112383</v>
+        <v>1.074879733386872</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053875468798818</v>
+        <v>1.046903821172418</v>
       </c>
       <c r="J3">
-        <v>1.048251779336549</v>
+        <v>1.058903655958421</v>
       </c>
       <c r="K3">
-        <v>1.048797000240218</v>
+        <v>1.055117651074186</v>
       </c>
       <c r="L3">
-        <v>1.055074864055473</v>
+        <v>1.070252620236714</v>
       </c>
       <c r="M3">
-        <v>1.060333774942071</v>
+        <v>1.077386993159354</v>
       </c>
       <c r="N3">
-        <v>1.019385163562462</v>
+        <v>1.023367733228577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031777096797882</v>
+        <v>1.054932768199299</v>
       </c>
       <c r="D4">
-        <v>1.041022716815551</v>
+        <v>1.053073590002316</v>
       </c>
       <c r="E4">
-        <v>1.048057668317349</v>
+        <v>1.068419062255575</v>
       </c>
       <c r="F4">
-        <v>1.053565416669671</v>
+        <v>1.075618732034853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054958937580877</v>
+        <v>1.047100207644079</v>
       </c>
       <c r="J4">
-        <v>1.050401448162728</v>
+        <v>1.059374765342897</v>
       </c>
       <c r="K4">
-        <v>1.050650015012167</v>
+        <v>1.055515130536403</v>
       </c>
       <c r="L4">
-        <v>1.057608717050151</v>
+        <v>1.07082371544046</v>
       </c>
       <c r="M4">
-        <v>1.063057638702329</v>
+        <v>1.078006467910669</v>
       </c>
       <c r="N4">
-        <v>1.02013060933674</v>
+        <v>1.023528469288137</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033133955540753</v>
+        <v>1.055226280962694</v>
       </c>
       <c r="D5">
-        <v>1.042014459910503</v>
+        <v>1.053291926695964</v>
       </c>
       <c r="E5">
-        <v>1.049333893515806</v>
+        <v>1.068709853690404</v>
       </c>
       <c r="F5">
-        <v>1.054919994480372</v>
+        <v>1.075929565671266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055406652375491</v>
+        <v>1.047182508071778</v>
       </c>
       <c r="J5">
-        <v>1.051293165509068</v>
+        <v>1.059572716910298</v>
       </c>
       <c r="K5">
-        <v>1.051418364293755</v>
+        <v>1.055682094624096</v>
       </c>
       <c r="L5">
-        <v>1.058660638095718</v>
+        <v>1.071063785885057</v>
       </c>
       <c r="M5">
-        <v>1.064188730740474</v>
+        <v>1.078266912409261</v>
       </c>
       <c r="N5">
-        <v>1.020439683137063</v>
+        <v>1.023595972649722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033360804051196</v>
+        <v>1.055275565354677</v>
       </c>
       <c r="D6">
-        <v>1.042180301040321</v>
+        <v>1.053328587555422</v>
       </c>
       <c r="E6">
-        <v>1.049547332496652</v>
+        <v>1.068758686258729</v>
       </c>
       <c r="F6">
-        <v>1.055146545375421</v>
+        <v>1.075981765307427</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055481376414424</v>
+        <v>1.047196311400312</v>
       </c>
       <c r="J6">
-        <v>1.051442197314119</v>
+        <v>1.05960594781787</v>
       </c>
       <c r="K6">
-        <v>1.05154675908734</v>
+        <v>1.055710120632048</v>
       </c>
       <c r="L6">
-        <v>1.05883649406409</v>
+        <v>1.071104093712859</v>
       </c>
       <c r="M6">
-        <v>1.064377839275981</v>
+        <v>1.078310643201082</v>
       </c>
       <c r="N6">
-        <v>1.020491329307892</v>
+        <v>1.023607302647599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031795292896992</v>
+        <v>1.054936689976783</v>
       </c>
       <c r="D7">
-        <v>1.041036014155215</v>
+        <v>1.053076507349326</v>
       </c>
       <c r="E7">
-        <v>1.048074778268697</v>
+        <v>1.068422947328576</v>
       </c>
       <c r="F7">
-        <v>1.053583576534503</v>
+        <v>1.07562288478589</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054964950212653</v>
+        <v>1.047101308369909</v>
       </c>
       <c r="J7">
-        <v>1.050413409929962</v>
+        <v>1.059377410785528</v>
       </c>
       <c r="K7">
-        <v>1.050660323128207</v>
+        <v>1.055517362054434</v>
       </c>
       <c r="L7">
-        <v>1.057622824516174</v>
+        <v>1.070826923344212</v>
       </c>
       <c r="M7">
-        <v>1.06307280679653</v>
+        <v>1.078009947914803</v>
       </c>
       <c r="N7">
-        <v>1.020134755947371</v>
+        <v>1.023529371546894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025106019563162</v>
+        <v>1.053520578222193</v>
       </c>
       <c r="D8">
-        <v>1.036152147684013</v>
+        <v>1.052023025466011</v>
       </c>
       <c r="E8">
-        <v>1.041793439415867</v>
+        <v>1.067020686065584</v>
       </c>
       <c r="F8">
-        <v>1.046917695610643</v>
+        <v>1.074124168884341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052739746254019</v>
+        <v>1.046702001152556</v>
       </c>
       <c r="J8">
-        <v>1.046010195645603</v>
+        <v>1.058421290965924</v>
       </c>
       <c r="K8">
-        <v>1.046863708579959</v>
+        <v>1.05471050666004</v>
       </c>
       <c r="L8">
-        <v>1.052435555879661</v>
+        <v>1.069668244095064</v>
       </c>
       <c r="M8">
-        <v>1.057497537899071</v>
+        <v>1.076753237765805</v>
       </c>
       <c r="N8">
-        <v>1.018607351130948</v>
+        <v>1.023203037930606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012720303797382</v>
+        <v>1.051026440164228</v>
       </c>
       <c r="D9">
-        <v>1.027134845121114</v>
+        <v>1.050167334900684</v>
       </c>
       <c r="E9">
-        <v>1.030206924170625</v>
+        <v>1.064553771623398</v>
       </c>
       <c r="F9">
-        <v>1.034625687622945</v>
+        <v>1.07148831326722</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048550752057979</v>
+        <v>1.045990046142234</v>
       </c>
       <c r="J9">
-        <v>1.037831735523577</v>
+        <v>1.056733202357038</v>
       </c>
       <c r="K9">
-        <v>1.039802501235913</v>
+        <v>1.05328437921718</v>
       </c>
       <c r="L9">
-        <v>1.042828214267126</v>
+        <v>1.067625932872791</v>
       </c>
       <c r="M9">
-        <v>1.047180900540013</v>
+        <v>1.074539309614892</v>
       </c>
       <c r="N9">
-        <v>1.015766084542729</v>
+        <v>1.022625765308756</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004010049150104</v>
+        <v>1.04936448844024</v>
       </c>
       <c r="D10">
-        <v>1.02081503550977</v>
+        <v>1.048930689415009</v>
       </c>
       <c r="E10">
-        <v>1.022091140915828</v>
+        <v>1.062911886556176</v>
       </c>
       <c r="F10">
-        <v>1.026017821424037</v>
+        <v>1.069734483278302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045560679545102</v>
+        <v>1.045509816920129</v>
       </c>
       <c r="J10">
-        <v>1.032065464654693</v>
+        <v>1.055605604645871</v>
       </c>
       <c r="K10">
-        <v>1.034818370271923</v>
+        <v>1.052330715527157</v>
       </c>
       <c r="L10">
-        <v>1.036072668571697</v>
+        <v>1.066264009578558</v>
       </c>
       <c r="M10">
-        <v>1.039932685846267</v>
+        <v>1.073063729577532</v>
       </c>
       <c r="N10">
-        <v>1.01376050473476</v>
+        <v>1.02223942444673</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000118429180717</v>
+        <v>1.048645030810528</v>
       </c>
       <c r="D11">
-        <v>1.01799758757429</v>
+        <v>1.048395327104036</v>
       </c>
       <c r="E11">
-        <v>1.018473472409638</v>
+        <v>1.06220157794824</v>
       </c>
       <c r="F11">
-        <v>1.022181174199978</v>
+        <v>1.068975861805396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044214871840029</v>
+        <v>1.045300546440236</v>
       </c>
       <c r="J11">
-        <v>1.029486282190369</v>
+        <v>1.055116819041291</v>
       </c>
       <c r="K11">
-        <v>1.032587893906674</v>
+        <v>1.051917079275075</v>
       </c>
       <c r="L11">
-        <v>1.033055217111432</v>
+        <v>1.065674190396395</v>
       </c>
       <c r="M11">
-        <v>1.036696568124384</v>
+        <v>1.072424874141129</v>
       </c>
       <c r="N11">
-        <v>1.012863013790548</v>
+        <v>1.022071781957639</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9986537076102964</v>
+        <v>1.04837781843299</v>
       </c>
       <c r="D12">
-        <v>1.016938179041474</v>
+        <v>1.048196487027724</v>
       </c>
       <c r="E12">
-        <v>1.017113174647131</v>
+        <v>1.061937833476979</v>
       </c>
       <c r="F12">
-        <v>1.020738581743888</v>
+        <v>1.068694195708288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043706907349114</v>
+        <v>1.045222614523619</v>
       </c>
       <c r="J12">
-        <v>1.028515154439198</v>
+        <v>1.054935182806051</v>
       </c>
       <c r="K12">
-        <v>1.031747909210369</v>
+        <v>1.051763332177892</v>
       </c>
       <c r="L12">
-        <v>1.031919696765132</v>
+        <v>1.065455090498199</v>
       </c>
       <c r="M12">
-        <v>1.035478964159065</v>
+        <v>1.072187586662736</v>
       </c>
       <c r="N12">
-        <v>1.012525034241986</v>
+        <v>1.022009458912581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.998968784063766</v>
+        <v>1.048435135217931</v>
       </c>
       <c r="D13">
-        <v>1.017166021015492</v>
+        <v>1.04823913811045</v>
       </c>
       <c r="E13">
-        <v>1.017405728103739</v>
+        <v>1.061994403229846</v>
       </c>
       <c r="F13">
-        <v>1.021048832140936</v>
+        <v>1.068754608630052</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04381623943271</v>
+        <v>1.045239340214253</v>
       </c>
       <c r="J13">
-        <v>1.028724070066304</v>
+        <v>1.054974147994457</v>
       </c>
       <c r="K13">
-        <v>1.031928619108327</v>
+        <v>1.051796316165886</v>
       </c>
       <c r="L13">
-        <v>1.032163949455223</v>
+        <v>1.065502088842002</v>
       </c>
       <c r="M13">
-        <v>1.035740864042639</v>
+        <v>1.072238485098317</v>
       </c>
       <c r="N13">
-        <v>1.01259774483862</v>
+        <v>1.022022829821701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9999977536287743</v>
+        <v>1.048622942420545</v>
       </c>
       <c r="D14">
-        <v>1.017910283735906</v>
+        <v>1.048378890566213</v>
       </c>
       <c r="E14">
-        <v>1.018361373069299</v>
+        <v>1.062179774795098</v>
       </c>
       <c r="F14">
-        <v>1.022062292283247</v>
+        <v>1.068952576757725</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044173050401103</v>
+        <v>1.045294108634395</v>
       </c>
       <c r="J14">
-        <v>1.029406280243931</v>
+        <v>1.055101806555849</v>
       </c>
       <c r="K14">
-        <v>1.032518698605525</v>
+        <v>1.051904372617058</v>
       </c>
       <c r="L14">
-        <v>1.032961659738078</v>
+        <v>1.065656079833119</v>
       </c>
       <c r="M14">
-        <v>1.036596243622636</v>
+        <v>1.072405259643095</v>
       </c>
       <c r="N14">
-        <v>1.012835171856979</v>
+        <v>1.022066631399306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000629154865742</v>
+        <v>1.048738660093399</v>
       </c>
       <c r="D15">
-        <v>1.01836711880466</v>
+        <v>1.048464998970887</v>
       </c>
       <c r="E15">
-        <v>1.01894795557559</v>
+        <v>1.062294001020814</v>
       </c>
       <c r="F15">
-        <v>1.022684367744132</v>
+        <v>1.069074567307828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04439181144956</v>
+        <v>1.045327826823833</v>
       </c>
       <c r="J15">
-        <v>1.029824853049548</v>
+        <v>1.055180450670938</v>
       </c>
       <c r="K15">
-        <v>1.032880724533366</v>
+        <v>1.051970935959434</v>
       </c>
       <c r="L15">
-        <v>1.03345118046768</v>
+        <v>1.065750956800307</v>
       </c>
       <c r="M15">
-        <v>1.037121180331099</v>
+        <v>1.07250801651175</v>
       </c>
       <c r="N15">
-        <v>1.012980839742669</v>
+        <v>1.022093611954925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00426569685042</v>
+        <v>1.049412240182784</v>
       </c>
       <c r="D16">
-        <v>1.021000254653076</v>
+        <v>1.04896622206158</v>
       </c>
       <c r="E16">
-        <v>1.022328970924817</v>
+        <v>1.062959040837975</v>
       </c>
       <c r="F16">
-        <v>1.026270054163594</v>
+        <v>1.069784847287236</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045648886922157</v>
+        <v>1.045523677530513</v>
       </c>
       <c r="J16">
-        <v>1.032234840314908</v>
+        <v>1.05563803259462</v>
       </c>
       <c r="K16">
-        <v>1.03496482409565</v>
+        <v>1.05235815259222</v>
       </c>
       <c r="L16">
-        <v>1.036270912655154</v>
+        <v>1.066303151869351</v>
       </c>
       <c r="M16">
-        <v>1.040145324678844</v>
+        <v>1.073106129985797</v>
       </c>
       <c r="N16">
-        <v>1.013819435471114</v>
+        <v>1.022250542867448</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006513874960918</v>
+        <v>1.049834806533041</v>
       </c>
       <c r="D17">
-        <v>1.022629790732053</v>
+        <v>1.049280656617816</v>
       </c>
       <c r="E17">
-        <v>1.024421415011551</v>
+        <v>1.063376373573363</v>
       </c>
       <c r="F17">
-        <v>1.028489255316837</v>
+        <v>1.070230600740441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046423469854625</v>
+        <v>1.045646173933162</v>
       </c>
       <c r="J17">
-        <v>1.03372401563289</v>
+        <v>1.055924920106034</v>
       </c>
       <c r="K17">
-        <v>1.036252340339865</v>
+        <v>1.052600857683073</v>
       </c>
       <c r="L17">
-        <v>1.038014381818129</v>
+        <v>1.066649503056461</v>
       </c>
       <c r="M17">
-        <v>1.042015546797979</v>
+        <v>1.073481332156404</v>
       </c>
       <c r="N17">
-        <v>1.014337516765939</v>
+        <v>1.022348886668107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007813702693984</v>
+        <v>1.050081299591404</v>
       </c>
       <c r="D18">
-        <v>1.023572514986661</v>
+        <v>1.049464071891109</v>
       </c>
       <c r="E18">
-        <v>1.025631988647055</v>
+        <v>1.063619858309347</v>
       </c>
       <c r="F18">
-        <v>1.029773199574807</v>
+        <v>1.070490678248278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046870370277876</v>
+        <v>1.045717495875064</v>
       </c>
       <c r="J18">
-        <v>1.034584733423695</v>
+        <v>1.05609220576703</v>
       </c>
       <c r="K18">
-        <v>1.036996394037032</v>
+        <v>1.052742356533955</v>
       </c>
       <c r="L18">
-        <v>1.039022477070445</v>
+        <v>1.066851514456072</v>
       </c>
       <c r="M18">
-        <v>1.043097064182806</v>
+        <v>1.073700189011635</v>
       </c>
       <c r="N18">
-        <v>1.014636918377013</v>
+        <v>1.022406214748802</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008254994280932</v>
+        <v>1.050165350299121</v>
       </c>
       <c r="D19">
-        <v>1.023892665011413</v>
+        <v>1.049526613602086</v>
       </c>
       <c r="E19">
-        <v>1.026043110164532</v>
+        <v>1.063702890767166</v>
       </c>
       <c r="F19">
-        <v>1.030209244818555</v>
+        <v>1.070579371036369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0470219320508</v>
+        <v>1.045741793080369</v>
       </c>
       <c r="J19">
-        <v>1.03487689844772</v>
+        <v>1.056149237212525</v>
       </c>
       <c r="K19">
-        <v>1.03724893928416</v>
+        <v>1.052790592633457</v>
       </c>
       <c r="L19">
-        <v>1.039364736477795</v>
+        <v>1.066920393535352</v>
       </c>
       <c r="M19">
-        <v>1.043464273738241</v>
+        <v>1.073774814869109</v>
       </c>
       <c r="N19">
-        <v>1.014738541087286</v>
+        <v>1.022425756340546</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006273864003984</v>
+        <v>1.049789467382071</v>
       </c>
       <c r="D20">
-        <v>1.02245576428261</v>
+        <v>1.049246919634365</v>
       </c>
       <c r="E20">
-        <v>1.024197947859131</v>
+        <v>1.063331591348581</v>
       </c>
       <c r="F20">
-        <v>1.0282522472155</v>
+        <v>1.070182767644596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046340874101725</v>
+        <v>1.045633044482369</v>
       </c>
       <c r="J20">
-        <v>1.033565062727563</v>
+        <v>1.055894145064038</v>
       </c>
       <c r="K20">
-        <v>1.036114923453885</v>
+        <v>1.052574824645586</v>
       </c>
       <c r="L20">
-        <v>1.03782824440754</v>
+        <v>1.066612343824</v>
       </c>
       <c r="M20">
-        <v>1.041815863234993</v>
+        <v>1.073441075711378</v>
       </c>
       <c r="N20">
-        <v>1.014282221470362</v>
+        <v>1.022338338845317</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9996952876449647</v>
+        <v>1.048567637161246</v>
       </c>
       <c r="D21">
-        <v>1.017691478655399</v>
+        <v>1.048337736470669</v>
       </c>
       <c r="E21">
-        <v>1.018080424218306</v>
+        <v>1.062125184846802</v>
       </c>
       <c r="F21">
-        <v>1.021764345286818</v>
+        <v>1.068894276776305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044068204625229</v>
+        <v>1.045277986208208</v>
       </c>
       <c r="J21">
-        <v>1.029205754283537</v>
+        <v>1.055064216486821</v>
       </c>
       <c r="K21">
-        <v>1.032345257232743</v>
+        <v>1.051872555560971</v>
       </c>
       <c r="L21">
-        <v>1.032727166984218</v>
+        <v>1.065610733733953</v>
       </c>
       <c r="M21">
-        <v>1.036344792973265</v>
+        <v>1.072356148370265</v>
       </c>
       <c r="N21">
-        <v>1.012765384886804</v>
+        <v>1.022053734393301</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9954473347625958</v>
+        <v>1.047799575420076</v>
       </c>
       <c r="D22">
-        <v>1.014621044382672</v>
+        <v>1.047766197301264</v>
       </c>
       <c r="E22">
-        <v>1.014137880797008</v>
+        <v>1.061367223233396</v>
       </c>
       <c r="F22">
-        <v>1.017583359065251</v>
+        <v>1.068084843818614</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04259236692245</v>
+        <v>1.045053592480268</v>
       </c>
       <c r="J22">
-        <v>1.026388657556377</v>
+        <v>1.05454194743921</v>
       </c>
       <c r="K22">
-        <v>1.029908315429646</v>
+        <v>1.051430408398524</v>
       </c>
       <c r="L22">
-        <v>1.02943437169088</v>
+        <v>1.064980896056974</v>
       </c>
       <c r="M22">
-        <v>1.032814352665962</v>
+        <v>1.071674080096757</v>
       </c>
       <c r="N22">
-        <v>1.011784872617363</v>
+        <v>1.021874484746833</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9977102629872424</v>
+        <v>1.04820672532429</v>
       </c>
       <c r="D23">
-        <v>1.016256100383931</v>
+        <v>1.048069171416701</v>
       </c>
       <c r="E23">
-        <v>1.01623736889446</v>
+        <v>1.06176898055881</v>
       </c>
       <c r="F23">
-        <v>1.019809803002797</v>
+        <v>1.068513874002476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043379324892944</v>
+        <v>1.045172657279352</v>
       </c>
       <c r="J23">
-        <v>1.027889539819408</v>
+        <v>1.054818855786067</v>
       </c>
       <c r="K23">
-        <v>1.0312067377415</v>
+        <v>1.051664856096306</v>
       </c>
       <c r="L23">
-        <v>1.031188353766725</v>
+        <v>1.065314793098076</v>
       </c>
       <c r="M23">
-        <v>1.034694811409061</v>
+        <v>1.0720356509607</v>
       </c>
       <c r="N23">
-        <v>1.01230728990665</v>
+        <v>1.021969537500962</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006382350066008</v>
+        <v>1.049809954139235</v>
       </c>
       <c r="D24">
-        <v>1.022534423261376</v>
+        <v>1.049262163891207</v>
       </c>
       <c r="E24">
-        <v>1.024298953609856</v>
+        <v>1.063351826317803</v>
       </c>
       <c r="F24">
-        <v>1.028359373277949</v>
+        <v>1.070204381123369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046378210682612</v>
+        <v>1.04563897751189</v>
       </c>
       <c r="J24">
-        <v>1.033636911041297</v>
+        <v>1.055908051138181</v>
       </c>
       <c r="K24">
-        <v>1.036177037608221</v>
+        <v>1.052586588061334</v>
       </c>
       <c r="L24">
-        <v>1.03791237915</v>
+        <v>1.066629134510507</v>
       </c>
       <c r="M24">
-        <v>1.04190612047457</v>
+        <v>1.073459265841872</v>
       </c>
       <c r="N24">
-        <v>1.01430721562723</v>
+        <v>1.022343105058039</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015998214008188</v>
+        <v>1.051671090860145</v>
       </c>
       <c r="D25">
-        <v>1.02951790237663</v>
+        <v>1.050646992339617</v>
       </c>
       <c r="E25">
-        <v>1.033267951703698</v>
+        <v>1.065191048083169</v>
       </c>
       <c r="F25">
-        <v>1.037872701813244</v>
+        <v>1.072169144325822</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049667156528641</v>
+        <v>1.04617508963862</v>
       </c>
       <c r="J25">
-        <v>1.039998914322911</v>
+        <v>1.057170002593507</v>
       </c>
       <c r="K25">
-        <v>1.041674642222703</v>
+        <v>1.053653581305161</v>
       </c>
       <c r="L25">
-        <v>1.04537087879895</v>
+        <v>1.068153986771128</v>
       </c>
       <c r="M25">
-        <v>1.049910223686446</v>
+        <v>1.075111597424884</v>
       </c>
       <c r="N25">
-        <v>1.016519422859467</v>
+        <v>1.022775267729349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053156097523423</v>
+        <v>1.023345058033474</v>
       </c>
       <c r="D2">
-        <v>1.051751861300523</v>
+        <v>1.034868016099132</v>
       </c>
       <c r="E2">
-        <v>1.066659961403967</v>
+        <v>1.040142692327869</v>
       </c>
       <c r="F2">
-        <v>1.073738682599607</v>
+        <v>1.045166162594172</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046598637936877</v>
+        <v>1.052149298274383</v>
       </c>
       <c r="J2">
-        <v>1.058174923673622</v>
+        <v>1.044849257982641</v>
       </c>
       <c r="K2">
-        <v>1.054502493799493</v>
+        <v>1.045862051272274</v>
       </c>
       <c r="L2">
-        <v>1.069369913909654</v>
+        <v>1.051069730470181</v>
       </c>
       <c r="M2">
-        <v>1.076429746941927</v>
+        <v>1.056030177989902</v>
       </c>
       <c r="N2">
-        <v>1.023118874588622</v>
+        <v>1.018204335716001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054234686470764</v>
+        <v>1.028509244523657</v>
       </c>
       <c r="D3">
-        <v>1.052554283269969</v>
+        <v>1.038635710170944</v>
       </c>
       <c r="E3">
-        <v>1.067727661019617</v>
+        <v>1.044986975525479</v>
       </c>
       <c r="F3">
-        <v>1.074879733386872</v>
+        <v>1.050306522112383</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046903821172418</v>
+        <v>1.053875468798818</v>
       </c>
       <c r="J3">
-        <v>1.058903655958421</v>
+        <v>1.048251779336549</v>
       </c>
       <c r="K3">
-        <v>1.055117651074186</v>
+        <v>1.048797000240217</v>
       </c>
       <c r="L3">
-        <v>1.070252620236714</v>
+        <v>1.055074864055473</v>
       </c>
       <c r="M3">
-        <v>1.077386993159354</v>
+        <v>1.060333774942071</v>
       </c>
       <c r="N3">
-        <v>1.023367733228577</v>
+        <v>1.019385163562462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054932768199299</v>
+        <v>1.031777096797882</v>
       </c>
       <c r="D4">
-        <v>1.053073590002316</v>
+        <v>1.04102271681555</v>
       </c>
       <c r="E4">
-        <v>1.068419062255575</v>
+        <v>1.048057668317348</v>
       </c>
       <c r="F4">
-        <v>1.075618732034853</v>
+        <v>1.05356541666967</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047100207644079</v>
+        <v>1.054958937580876</v>
       </c>
       <c r="J4">
-        <v>1.059374765342897</v>
+        <v>1.050401448162728</v>
       </c>
       <c r="K4">
-        <v>1.055515130536403</v>
+        <v>1.050650015012167</v>
       </c>
       <c r="L4">
-        <v>1.07082371544046</v>
+        <v>1.05760871705015</v>
       </c>
       <c r="M4">
-        <v>1.078006467910669</v>
+        <v>1.063057638702329</v>
       </c>
       <c r="N4">
-        <v>1.023528469288137</v>
+        <v>1.02013060933674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055226280962694</v>
+        <v>1.033133955540754</v>
       </c>
       <c r="D5">
-        <v>1.053291926695964</v>
+        <v>1.042014459910504</v>
       </c>
       <c r="E5">
-        <v>1.068709853690404</v>
+        <v>1.049333893515807</v>
       </c>
       <c r="F5">
-        <v>1.075929565671266</v>
+        <v>1.054919994480373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047182508071778</v>
+        <v>1.055406652375491</v>
       </c>
       <c r="J5">
-        <v>1.059572716910298</v>
+        <v>1.051293165509069</v>
       </c>
       <c r="K5">
-        <v>1.055682094624096</v>
+        <v>1.051418364293756</v>
       </c>
       <c r="L5">
-        <v>1.071063785885057</v>
+        <v>1.058660638095719</v>
       </c>
       <c r="M5">
-        <v>1.078266912409261</v>
+        <v>1.064188730740476</v>
       </c>
       <c r="N5">
-        <v>1.023595972649722</v>
+        <v>1.020439683137064</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055275565354677</v>
+        <v>1.033360804051196</v>
       </c>
       <c r="D6">
-        <v>1.053328587555422</v>
+        <v>1.04218030104032</v>
       </c>
       <c r="E6">
-        <v>1.068758686258729</v>
+        <v>1.049547332496652</v>
       </c>
       <c r="F6">
-        <v>1.075981765307427</v>
+        <v>1.055146545375421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047196311400312</v>
+        <v>1.055481376414424</v>
       </c>
       <c r="J6">
-        <v>1.05960594781787</v>
+        <v>1.051442197314119</v>
       </c>
       <c r="K6">
-        <v>1.055710120632048</v>
+        <v>1.05154675908734</v>
       </c>
       <c r="L6">
-        <v>1.071104093712859</v>
+        <v>1.058836494064089</v>
       </c>
       <c r="M6">
-        <v>1.078310643201082</v>
+        <v>1.06437783927598</v>
       </c>
       <c r="N6">
-        <v>1.023607302647599</v>
+        <v>1.020491329307892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054936689976783</v>
+        <v>1.031795292896991</v>
       </c>
       <c r="D7">
-        <v>1.053076507349326</v>
+        <v>1.041036014155214</v>
       </c>
       <c r="E7">
-        <v>1.068422947328576</v>
+        <v>1.048074778268696</v>
       </c>
       <c r="F7">
-        <v>1.07562288478589</v>
+        <v>1.053583576534502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047101308369909</v>
+        <v>1.054964950212653</v>
       </c>
       <c r="J7">
-        <v>1.059377410785528</v>
+        <v>1.050413409929962</v>
       </c>
       <c r="K7">
-        <v>1.055517362054434</v>
+        <v>1.050660323128206</v>
       </c>
       <c r="L7">
-        <v>1.070826923344212</v>
+        <v>1.057622824516173</v>
       </c>
       <c r="M7">
-        <v>1.078009947914803</v>
+        <v>1.063072806796529</v>
       </c>
       <c r="N7">
-        <v>1.023529371546894</v>
+        <v>1.02013475594737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053520578222193</v>
+        <v>1.025106019563162</v>
       </c>
       <c r="D8">
-        <v>1.052023025466011</v>
+        <v>1.036152147684013</v>
       </c>
       <c r="E8">
-        <v>1.067020686065584</v>
+        <v>1.041793439415868</v>
       </c>
       <c r="F8">
-        <v>1.074124168884341</v>
+        <v>1.046917695610644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046702001152556</v>
+        <v>1.052739746254019</v>
       </c>
       <c r="J8">
-        <v>1.058421290965924</v>
+        <v>1.046010195645603</v>
       </c>
       <c r="K8">
-        <v>1.05471050666004</v>
+        <v>1.046863708579959</v>
       </c>
       <c r="L8">
-        <v>1.069668244095064</v>
+        <v>1.052435555879661</v>
       </c>
       <c r="M8">
-        <v>1.076753237765805</v>
+        <v>1.057497537899071</v>
       </c>
       <c r="N8">
-        <v>1.023203037930606</v>
+        <v>1.018607351130948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051026440164228</v>
+        <v>1.01272030379738</v>
       </c>
       <c r="D9">
-        <v>1.050167334900684</v>
+        <v>1.027134845121112</v>
       </c>
       <c r="E9">
-        <v>1.064553771623398</v>
+        <v>1.030206924170623</v>
       </c>
       <c r="F9">
-        <v>1.07148831326722</v>
+        <v>1.034625687622944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045990046142234</v>
+        <v>1.048550752057978</v>
       </c>
       <c r="J9">
-        <v>1.056733202357038</v>
+        <v>1.037831735523575</v>
       </c>
       <c r="K9">
-        <v>1.05328437921718</v>
+        <v>1.039802501235911</v>
       </c>
       <c r="L9">
-        <v>1.067625932872791</v>
+        <v>1.042828214267124</v>
       </c>
       <c r="M9">
-        <v>1.074539309614892</v>
+        <v>1.047180900540011</v>
       </c>
       <c r="N9">
-        <v>1.022625765308756</v>
+        <v>1.015766084542728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04936448844024</v>
+        <v>1.004010049150105</v>
       </c>
       <c r="D10">
-        <v>1.048930689415009</v>
+        <v>1.020815035509771</v>
       </c>
       <c r="E10">
-        <v>1.062911886556176</v>
+        <v>1.022091140915829</v>
       </c>
       <c r="F10">
-        <v>1.069734483278302</v>
+        <v>1.026017821424038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045509816920129</v>
+        <v>1.045560679545103</v>
       </c>
       <c r="J10">
-        <v>1.055605604645871</v>
+        <v>1.032065464654693</v>
       </c>
       <c r="K10">
-        <v>1.052330715527157</v>
+        <v>1.034818370271924</v>
       </c>
       <c r="L10">
-        <v>1.066264009578558</v>
+        <v>1.036072668571698</v>
       </c>
       <c r="M10">
-        <v>1.073063729577532</v>
+        <v>1.039932685846268</v>
       </c>
       <c r="N10">
-        <v>1.02223942444673</v>
+        <v>1.013760504734761</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048645030810528</v>
+        <v>1.000118429180716</v>
       </c>
       <c r="D11">
-        <v>1.048395327104036</v>
+        <v>1.017997587574289</v>
       </c>
       <c r="E11">
-        <v>1.06220157794824</v>
+        <v>1.018473472409637</v>
       </c>
       <c r="F11">
-        <v>1.068975861805396</v>
+        <v>1.022181174199977</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045300546440236</v>
+        <v>1.044214871840028</v>
       </c>
       <c r="J11">
-        <v>1.055116819041291</v>
+        <v>1.029486282190369</v>
       </c>
       <c r="K11">
-        <v>1.051917079275075</v>
+        <v>1.032587893906673</v>
       </c>
       <c r="L11">
-        <v>1.065674190396395</v>
+        <v>1.033055217111431</v>
       </c>
       <c r="M11">
-        <v>1.072424874141129</v>
+        <v>1.036696568124384</v>
       </c>
       <c r="N11">
-        <v>1.022071781957639</v>
+        <v>1.012863013790548</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04837781843299</v>
+        <v>0.9986537076102953</v>
       </c>
       <c r="D12">
-        <v>1.048196487027724</v>
+        <v>1.016938179041473</v>
       </c>
       <c r="E12">
-        <v>1.061937833476979</v>
+        <v>1.017113174647129</v>
       </c>
       <c r="F12">
-        <v>1.068694195708288</v>
+        <v>1.020738581743886</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045222614523619</v>
+        <v>1.043706907349113</v>
       </c>
       <c r="J12">
-        <v>1.054935182806051</v>
+        <v>1.028515154439197</v>
       </c>
       <c r="K12">
-        <v>1.051763332177892</v>
+        <v>1.031747909210367</v>
       </c>
       <c r="L12">
-        <v>1.065455090498199</v>
+        <v>1.031919696765131</v>
       </c>
       <c r="M12">
-        <v>1.072187586662736</v>
+        <v>1.035478964159064</v>
       </c>
       <c r="N12">
-        <v>1.022009458912581</v>
+        <v>1.012525034241986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048435135217931</v>
+        <v>0.9989687840637671</v>
       </c>
       <c r="D13">
-        <v>1.04823913811045</v>
+        <v>1.017166021015493</v>
       </c>
       <c r="E13">
-        <v>1.061994403229846</v>
+        <v>1.01740572810374</v>
       </c>
       <c r="F13">
-        <v>1.068754608630052</v>
+        <v>1.021048832140937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045239340214253</v>
+        <v>1.04381623943271</v>
       </c>
       <c r="J13">
-        <v>1.054974147994457</v>
+        <v>1.028724070066305</v>
       </c>
       <c r="K13">
-        <v>1.051796316165886</v>
+        <v>1.031928619108328</v>
       </c>
       <c r="L13">
-        <v>1.065502088842002</v>
+        <v>1.032163949455225</v>
       </c>
       <c r="M13">
-        <v>1.072238485098317</v>
+        <v>1.03574086404264</v>
       </c>
       <c r="N13">
-        <v>1.022022829821701</v>
+        <v>1.01259774483862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048622942420545</v>
+        <v>0.999997753628776</v>
       </c>
       <c r="D14">
-        <v>1.048378890566213</v>
+        <v>1.017910283735907</v>
       </c>
       <c r="E14">
-        <v>1.062179774795098</v>
+        <v>1.0183613730693</v>
       </c>
       <c r="F14">
-        <v>1.068952576757725</v>
+        <v>1.022062292283249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045294108634395</v>
+        <v>1.044173050401103</v>
       </c>
       <c r="J14">
-        <v>1.055101806555849</v>
+        <v>1.029406280243933</v>
       </c>
       <c r="K14">
-        <v>1.051904372617058</v>
+        <v>1.032518698605527</v>
       </c>
       <c r="L14">
-        <v>1.065656079833119</v>
+        <v>1.03296165973808</v>
       </c>
       <c r="M14">
-        <v>1.072405259643095</v>
+        <v>1.036596243622638</v>
       </c>
       <c r="N14">
-        <v>1.022066631399306</v>
+        <v>1.012835171856979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048738660093399</v>
+        <v>1.000629154865741</v>
       </c>
       <c r="D15">
-        <v>1.048464998970887</v>
+        <v>1.018367118804659</v>
       </c>
       <c r="E15">
-        <v>1.062294001020814</v>
+        <v>1.018947955575589</v>
       </c>
       <c r="F15">
-        <v>1.069074567307828</v>
+        <v>1.022684367744131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045327826823833</v>
+        <v>1.044391811449559</v>
       </c>
       <c r="J15">
-        <v>1.055180450670938</v>
+        <v>1.029824853049546</v>
       </c>
       <c r="K15">
-        <v>1.051970935959434</v>
+        <v>1.032880724533365</v>
       </c>
       <c r="L15">
-        <v>1.065750956800307</v>
+        <v>1.033451180467679</v>
       </c>
       <c r="M15">
-        <v>1.07250801651175</v>
+        <v>1.037121180331098</v>
       </c>
       <c r="N15">
-        <v>1.022093611954925</v>
+        <v>1.012980839742668</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049412240182784</v>
+        <v>1.00426569685042</v>
       </c>
       <c r="D16">
-        <v>1.04896622206158</v>
+        <v>1.021000254653076</v>
       </c>
       <c r="E16">
-        <v>1.062959040837975</v>
+        <v>1.022328970924816</v>
       </c>
       <c r="F16">
-        <v>1.069784847287236</v>
+        <v>1.026270054163593</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045523677530513</v>
+        <v>1.045648886922157</v>
       </c>
       <c r="J16">
-        <v>1.05563803259462</v>
+        <v>1.032234840314908</v>
       </c>
       <c r="K16">
-        <v>1.05235815259222</v>
+        <v>1.034964824095649</v>
       </c>
       <c r="L16">
-        <v>1.066303151869351</v>
+        <v>1.036270912655154</v>
       </c>
       <c r="M16">
-        <v>1.073106129985797</v>
+        <v>1.040145324678843</v>
       </c>
       <c r="N16">
-        <v>1.022250542867448</v>
+        <v>1.013819435471114</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.049834806533041</v>
+        <v>1.006513874960918</v>
       </c>
       <c r="D17">
-        <v>1.049280656617816</v>
+        <v>1.022629790732053</v>
       </c>
       <c r="E17">
-        <v>1.063376373573363</v>
+        <v>1.024421415011552</v>
       </c>
       <c r="F17">
-        <v>1.070230600740441</v>
+        <v>1.028489255316837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045646173933162</v>
+        <v>1.046423469854625</v>
       </c>
       <c r="J17">
-        <v>1.055924920106034</v>
+        <v>1.03372401563289</v>
       </c>
       <c r="K17">
-        <v>1.052600857683073</v>
+        <v>1.036252340339865</v>
       </c>
       <c r="L17">
-        <v>1.066649503056461</v>
+        <v>1.03801438181813</v>
       </c>
       <c r="M17">
-        <v>1.073481332156404</v>
+        <v>1.042015546797979</v>
       </c>
       <c r="N17">
-        <v>1.022348886668107</v>
+        <v>1.014337516765939</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050081299591404</v>
+        <v>1.007813702693984</v>
       </c>
       <c r="D18">
-        <v>1.049464071891109</v>
+        <v>1.023572514986661</v>
       </c>
       <c r="E18">
-        <v>1.063619858309347</v>
+        <v>1.025631988647055</v>
       </c>
       <c r="F18">
-        <v>1.070490678248278</v>
+        <v>1.029773199574807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045717495875064</v>
+        <v>1.046870370277876</v>
       </c>
       <c r="J18">
-        <v>1.05609220576703</v>
+        <v>1.034584733423695</v>
       </c>
       <c r="K18">
-        <v>1.052742356533955</v>
+        <v>1.036996394037032</v>
       </c>
       <c r="L18">
-        <v>1.066851514456072</v>
+        <v>1.039022477070445</v>
       </c>
       <c r="M18">
-        <v>1.073700189011635</v>
+        <v>1.043097064182806</v>
       </c>
       <c r="N18">
-        <v>1.022406214748802</v>
+        <v>1.014636918377013</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050165350299121</v>
+        <v>1.008254994280932</v>
       </c>
       <c r="D19">
-        <v>1.049526613602086</v>
+        <v>1.023892665011413</v>
       </c>
       <c r="E19">
-        <v>1.063702890767166</v>
+        <v>1.026043110164533</v>
       </c>
       <c r="F19">
-        <v>1.070579371036369</v>
+        <v>1.030209244818556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045741793080369</v>
+        <v>1.0470219320508</v>
       </c>
       <c r="J19">
-        <v>1.056149237212525</v>
+        <v>1.034876898447721</v>
       </c>
       <c r="K19">
-        <v>1.052790592633457</v>
+        <v>1.03724893928416</v>
       </c>
       <c r="L19">
-        <v>1.066920393535352</v>
+        <v>1.039364736477796</v>
       </c>
       <c r="M19">
-        <v>1.073774814869109</v>
+        <v>1.043464273738242</v>
       </c>
       <c r="N19">
-        <v>1.022425756340546</v>
+        <v>1.014738541087286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049789467382071</v>
+        <v>1.006273864003983</v>
       </c>
       <c r="D20">
-        <v>1.049246919634365</v>
+        <v>1.022455764282609</v>
       </c>
       <c r="E20">
-        <v>1.063331591348581</v>
+        <v>1.024197947859129</v>
       </c>
       <c r="F20">
-        <v>1.070182767644596</v>
+        <v>1.028252247215499</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045633044482369</v>
+        <v>1.046340874101724</v>
       </c>
       <c r="J20">
-        <v>1.055894145064038</v>
+        <v>1.033565062727562</v>
       </c>
       <c r="K20">
-        <v>1.052574824645586</v>
+        <v>1.036114923453884</v>
       </c>
       <c r="L20">
-        <v>1.066612343824</v>
+        <v>1.037828244407539</v>
       </c>
       <c r="M20">
-        <v>1.073441075711378</v>
+        <v>1.041815863234991</v>
       </c>
       <c r="N20">
-        <v>1.022338338845317</v>
+        <v>1.014282221470361</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.048567637161246</v>
+        <v>0.9996952876449656</v>
       </c>
       <c r="D21">
-        <v>1.048337736470669</v>
+        <v>1.017691478655399</v>
       </c>
       <c r="E21">
-        <v>1.062125184846802</v>
+        <v>1.018080424218307</v>
       </c>
       <c r="F21">
-        <v>1.068894276776305</v>
+        <v>1.021764345286819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045277986208208</v>
+        <v>1.044068204625229</v>
       </c>
       <c r="J21">
-        <v>1.055064216486821</v>
+        <v>1.029205754283538</v>
       </c>
       <c r="K21">
-        <v>1.051872555560971</v>
+        <v>1.032345257232743</v>
       </c>
       <c r="L21">
-        <v>1.065610733733953</v>
+        <v>1.032727166984219</v>
       </c>
       <c r="M21">
-        <v>1.072356148370265</v>
+        <v>1.036344792973265</v>
       </c>
       <c r="N21">
-        <v>1.022053734393301</v>
+        <v>1.012765384886805</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047799575420076</v>
+        <v>0.9954473347625961</v>
       </c>
       <c r="D22">
-        <v>1.047766197301264</v>
+        <v>1.014621044382672</v>
       </c>
       <c r="E22">
-        <v>1.061367223233396</v>
+        <v>1.014137880797008</v>
       </c>
       <c r="F22">
-        <v>1.068084843818614</v>
+        <v>1.017583359065251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045053592480268</v>
+        <v>1.04259236692245</v>
       </c>
       <c r="J22">
-        <v>1.05454194743921</v>
+        <v>1.026388657556377</v>
       </c>
       <c r="K22">
-        <v>1.051430408398524</v>
+        <v>1.029908315429646</v>
       </c>
       <c r="L22">
-        <v>1.064980896056974</v>
+        <v>1.02943437169088</v>
       </c>
       <c r="M22">
-        <v>1.071674080096757</v>
+        <v>1.032814352665962</v>
       </c>
       <c r="N22">
-        <v>1.021874484746833</v>
+        <v>1.011784872617363</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04820672532429</v>
+        <v>0.9977102629872419</v>
       </c>
       <c r="D23">
-        <v>1.048069171416701</v>
+        <v>1.016256100383931</v>
       </c>
       <c r="E23">
-        <v>1.06176898055881</v>
+        <v>1.01623736889446</v>
       </c>
       <c r="F23">
-        <v>1.068513874002476</v>
+        <v>1.019809803002797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045172657279352</v>
+        <v>1.043379324892944</v>
       </c>
       <c r="J23">
-        <v>1.054818855786067</v>
+        <v>1.027889539819407</v>
       </c>
       <c r="K23">
-        <v>1.051664856096306</v>
+        <v>1.0312067377415</v>
       </c>
       <c r="L23">
-        <v>1.065314793098076</v>
+        <v>1.031188353766724</v>
       </c>
       <c r="M23">
-        <v>1.0720356509607</v>
+        <v>1.03469481140906</v>
       </c>
       <c r="N23">
-        <v>1.021969537500962</v>
+        <v>1.01230728990665</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049809954139235</v>
+        <v>1.006382350066006</v>
       </c>
       <c r="D24">
-        <v>1.049262163891207</v>
+        <v>1.022534423261374</v>
       </c>
       <c r="E24">
-        <v>1.063351826317803</v>
+        <v>1.024298953609854</v>
       </c>
       <c r="F24">
-        <v>1.070204381123369</v>
+        <v>1.028359373277947</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04563897751189</v>
+        <v>1.04637821068261</v>
       </c>
       <c r="J24">
-        <v>1.055908051138181</v>
+        <v>1.033636911041295</v>
       </c>
       <c r="K24">
-        <v>1.052586588061334</v>
+        <v>1.036177037608219</v>
       </c>
       <c r="L24">
-        <v>1.066629134510507</v>
+        <v>1.037912379149998</v>
       </c>
       <c r="M24">
-        <v>1.073459265841872</v>
+        <v>1.041906120474568</v>
       </c>
       <c r="N24">
-        <v>1.022343105058039</v>
+        <v>1.01430721562723</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051671090860145</v>
+        <v>1.015998214008189</v>
       </c>
       <c r="D25">
-        <v>1.050646992339617</v>
+        <v>1.029517902376631</v>
       </c>
       <c r="E25">
-        <v>1.065191048083169</v>
+        <v>1.033267951703699</v>
       </c>
       <c r="F25">
-        <v>1.072169144325822</v>
+        <v>1.037872701813245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04617508963862</v>
+        <v>1.049667156528642</v>
       </c>
       <c r="J25">
-        <v>1.057170002593507</v>
+        <v>1.039998914322912</v>
       </c>
       <c r="K25">
-        <v>1.053653581305161</v>
+        <v>1.041674642222704</v>
       </c>
       <c r="L25">
-        <v>1.068153986771128</v>
+        <v>1.045370878798951</v>
       </c>
       <c r="M25">
-        <v>1.075111597424884</v>
+        <v>1.049910223686446</v>
       </c>
       <c r="N25">
-        <v>1.022775267729349</v>
+        <v>1.016519422859468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023345058033474</v>
+        <v>1.010205341845535</v>
       </c>
       <c r="D2">
-        <v>1.034868016099132</v>
+        <v>1.027451083614372</v>
       </c>
       <c r="E2">
-        <v>1.040142692327869</v>
+        <v>1.027148141236037</v>
       </c>
       <c r="F2">
-        <v>1.045166162594172</v>
+        <v>1.032731441634295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052149298274383</v>
+        <v>1.050449366533371</v>
       </c>
       <c r="J2">
-        <v>1.044849257982641</v>
+        <v>1.032085039287608</v>
       </c>
       <c r="K2">
-        <v>1.045862051272274</v>
+        <v>1.038540782813116</v>
       </c>
       <c r="L2">
-        <v>1.051069730470181</v>
+        <v>1.038241784575825</v>
       </c>
       <c r="M2">
-        <v>1.056030177989902</v>
+        <v>1.043752858285778</v>
       </c>
       <c r="N2">
-        <v>1.018204335716001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013544822627751</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043199838071582</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038321943910108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028509244523657</v>
+        <v>1.015434033380541</v>
       </c>
       <c r="D3">
-        <v>1.038635710170944</v>
+        <v>1.030973725996282</v>
       </c>
       <c r="E3">
-        <v>1.044986975525479</v>
+        <v>1.031708105248376</v>
       </c>
       <c r="F3">
-        <v>1.050306522112383</v>
+        <v>1.036851345572396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053875468798818</v>
+        <v>1.051746311645138</v>
       </c>
       <c r="J3">
-        <v>1.048251779336549</v>
+        <v>1.035512614631423</v>
       </c>
       <c r="K3">
-        <v>1.048797000240217</v>
+        <v>1.041225056450316</v>
       </c>
       <c r="L3">
-        <v>1.055074864055473</v>
+        <v>1.041950733808175</v>
       </c>
       <c r="M3">
-        <v>1.060333774942071</v>
+        <v>1.047033457678884</v>
       </c>
       <c r="N3">
-        <v>1.019385163562462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014799236761151</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045796198240126</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040217298763513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031777096797882</v>
+        <v>1.018738613650759</v>
       </c>
       <c r="D4">
-        <v>1.04102271681555</v>
+        <v>1.033201058624493</v>
       </c>
       <c r="E4">
-        <v>1.048057668317348</v>
+        <v>1.034596343230919</v>
       </c>
       <c r="F4">
-        <v>1.05356541666967</v>
+        <v>1.039464919670276</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054958937580876</v>
+        <v>1.052550586819527</v>
       </c>
       <c r="J4">
-        <v>1.050401448162728</v>
+        <v>1.037674833381336</v>
       </c>
       <c r="K4">
-        <v>1.050650015012167</v>
+        <v>1.042914632360831</v>
       </c>
       <c r="L4">
-        <v>1.05760871705015</v>
+        <v>1.044294408946153</v>
       </c>
       <c r="M4">
-        <v>1.063057638702329</v>
+        <v>1.04910927370981</v>
       </c>
       <c r="N4">
-        <v>1.02013060933674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015589690859072</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047439053660598</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041412868692159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033133955540754</v>
+        <v>1.020115354141264</v>
       </c>
       <c r="D5">
-        <v>1.042014459910504</v>
+        <v>1.0341312352976</v>
       </c>
       <c r="E5">
-        <v>1.049333893515807</v>
+        <v>1.035801278015242</v>
       </c>
       <c r="F5">
-        <v>1.054919994480373</v>
+        <v>1.040555599053877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055406652375491</v>
+        <v>1.052883512296571</v>
       </c>
       <c r="J5">
-        <v>1.051293165509069</v>
+        <v>1.038576436601995</v>
       </c>
       <c r="K5">
-        <v>1.051418364293756</v>
+        <v>1.043619740739128</v>
       </c>
       <c r="L5">
-        <v>1.058660638095719</v>
+        <v>1.045271729128004</v>
       </c>
       <c r="M5">
-        <v>1.064188730740476</v>
+        <v>1.049975041250556</v>
       </c>
       <c r="N5">
-        <v>1.020439683137064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015920946028899</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048124243789977</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041918591284589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033360804051196</v>
+        <v>1.02035228507747</v>
       </c>
       <c r="D6">
-        <v>1.04218030104032</v>
+        <v>1.034293832990247</v>
       </c>
       <c r="E6">
-        <v>1.049547332496652</v>
+        <v>1.036008944455143</v>
       </c>
       <c r="F6">
-        <v>1.055146545375421</v>
+        <v>1.040742858966309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055481376414424</v>
+        <v>1.052942557063158</v>
       </c>
       <c r="J6">
-        <v>1.051442197314119</v>
+        <v>1.038733730521881</v>
       </c>
       <c r="K6">
-        <v>1.05154675908734</v>
+        <v>1.043744532997911</v>
       </c>
       <c r="L6">
-        <v>1.058836494064089</v>
+        <v>1.045441190208645</v>
       </c>
       <c r="M6">
-        <v>1.06437783927598</v>
+        <v>1.050124555085944</v>
       </c>
       <c r="N6">
-        <v>1.020491329307892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015981000424114</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04824257272218</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042015550664869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031795292896991</v>
+        <v>1.018775507175575</v>
       </c>
       <c r="D7">
-        <v>1.041036014155214</v>
+        <v>1.033232696137898</v>
       </c>
       <c r="E7">
-        <v>1.048074778268696</v>
+        <v>1.034629210938901</v>
       </c>
       <c r="F7">
-        <v>1.053583576534502</v>
+        <v>1.039492584885521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054964950212653</v>
+        <v>1.052564813733884</v>
       </c>
       <c r="J7">
-        <v>1.050413409929962</v>
+        <v>1.037704909646207</v>
       </c>
       <c r="K7">
-        <v>1.050660323128206</v>
+        <v>1.0429430451165</v>
       </c>
       <c r="L7">
-        <v>1.057622824516173</v>
+        <v>1.044324044584006</v>
       </c>
       <c r="M7">
-        <v>1.063072806796529</v>
+        <v>1.049133785955679</v>
       </c>
       <c r="N7">
-        <v>1.02013475594737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015606972583834</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047458453275028</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041453025312104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025106019563162</v>
+        <v>1.012012677664252</v>
       </c>
       <c r="D8">
-        <v>1.036152147684013</v>
+        <v>1.028676721064771</v>
       </c>
       <c r="E8">
-        <v>1.041793439415868</v>
+        <v>1.028723766053082</v>
       </c>
       <c r="F8">
-        <v>1.046917695610644</v>
+        <v>1.03415154466501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052739746254019</v>
+        <v>1.050907274847495</v>
       </c>
       <c r="J8">
-        <v>1.046010195645603</v>
+        <v>1.033278065002831</v>
       </c>
       <c r="K8">
-        <v>1.046863708579959</v>
+        <v>1.03948176841934</v>
       </c>
       <c r="L8">
-        <v>1.052435555879661</v>
+        <v>1.039528219770213</v>
       </c>
       <c r="M8">
-        <v>1.057497537899071</v>
+        <v>1.044887959742884</v>
       </c>
       <c r="N8">
-        <v>1.018607351130948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01398991078339</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044098190866338</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039010201476992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01272030379738</v>
+        <v>0.9994262828535425</v>
       </c>
       <c r="D9">
-        <v>1.027134845121112</v>
+        <v>1.020198444975445</v>
       </c>
       <c r="E9">
-        <v>1.030206924170623</v>
+        <v>1.017784923779298</v>
       </c>
       <c r="F9">
-        <v>1.034625687622944</v>
+        <v>1.024294683376017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048550752057978</v>
+        <v>1.047693594892223</v>
       </c>
       <c r="J9">
-        <v>1.037831735523575</v>
+        <v>1.024999316830988</v>
       </c>
       <c r="K9">
-        <v>1.039802501235911</v>
+        <v>1.032972101270448</v>
       </c>
       <c r="L9">
-        <v>1.042828214267124</v>
+        <v>1.030595895690144</v>
       </c>
       <c r="M9">
-        <v>1.047180900540011</v>
+        <v>1.037005520736049</v>
       </c>
       <c r="N9">
-        <v>1.015766084542728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01094848046314</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037859772985525</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034404225094928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004010049150105</v>
+        <v>0.9907293737892365</v>
       </c>
       <c r="D10">
-        <v>1.020815035509771</v>
+        <v>1.01436448435489</v>
       </c>
       <c r="E10">
-        <v>1.022091140915829</v>
+        <v>1.010314566601713</v>
       </c>
       <c r="F10">
-        <v>1.026017821424038</v>
+        <v>1.017632498634181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045560679545103</v>
+        <v>1.045416428322769</v>
       </c>
       <c r="J10">
-        <v>1.032065464654693</v>
+        <v>1.01931569873414</v>
       </c>
       <c r="K10">
-        <v>1.034818370271924</v>
+        <v>1.028479138260089</v>
       </c>
       <c r="L10">
-        <v>1.036072668571698</v>
+        <v>1.024500052653847</v>
       </c>
       <c r="M10">
-        <v>1.039932685846268</v>
+        <v>1.031690527300744</v>
       </c>
       <c r="N10">
-        <v>1.013760504734761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008889835807364</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033705022150859</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03124426426148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000118429180716</v>
+        <v>0.9882742457867355</v>
       </c>
       <c r="D11">
-        <v>1.017997587574289</v>
+        <v>1.012804396945335</v>
       </c>
       <c r="E11">
-        <v>1.018473472409637</v>
+        <v>1.008615568711955</v>
       </c>
       <c r="F11">
-        <v>1.022181174199977</v>
+        <v>1.016497125664181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044214871840028</v>
+        <v>1.044908792247732</v>
       </c>
       <c r="J11">
-        <v>1.029486282190369</v>
+        <v>1.018143098772839</v>
       </c>
       <c r="K11">
-        <v>1.032587893906673</v>
+        <v>1.0274888145345</v>
       </c>
       <c r="L11">
-        <v>1.033055217111431</v>
+        <v>1.023376816687452</v>
       </c>
       <c r="M11">
-        <v>1.036696568124384</v>
+        <v>1.03111449500592</v>
       </c>
       <c r="N11">
-        <v>1.012863013790548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008731416680217</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033687788804312</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030577087842342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9986537076102953</v>
+        <v>0.9878909388037037</v>
       </c>
       <c r="D12">
-        <v>1.016938179041473</v>
+        <v>1.012606406180948</v>
       </c>
       <c r="E12">
-        <v>1.017113174647129</v>
+        <v>1.008585675100035</v>
       </c>
       <c r="F12">
-        <v>1.020738581743886</v>
+        <v>1.016744714957209</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043706907349113</v>
+        <v>1.044911396238546</v>
       </c>
       <c r="J12">
-        <v>1.028515154439197</v>
+        <v>1.01821676664927</v>
       </c>
       <c r="K12">
-        <v>1.031747909210367</v>
+        <v>1.027496008082688</v>
       </c>
       <c r="L12">
-        <v>1.031919696765131</v>
+        <v>1.023550215159556</v>
       </c>
       <c r="M12">
-        <v>1.035478964159064</v>
+        <v>1.031557993418462</v>
       </c>
       <c r="N12">
-        <v>1.012525034241986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008962709903823</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03436648112907</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03058217396957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9989687840637671</v>
+        <v>0.9890988455244478</v>
       </c>
       <c r="D13">
-        <v>1.017166021015493</v>
+        <v>1.013465202905774</v>
       </c>
       <c r="E13">
-        <v>1.01740572810374</v>
+        <v>1.009859518608102</v>
       </c>
       <c r="F13">
-        <v>1.021048832140937</v>
+        <v>1.018100377794513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04381623943271</v>
+        <v>1.045323558243075</v>
       </c>
       <c r="J13">
-        <v>1.028724070066305</v>
+        <v>1.019277498199321</v>
       </c>
       <c r="K13">
-        <v>1.031928619108328</v>
+        <v>1.028295715548201</v>
       </c>
       <c r="L13">
-        <v>1.032163949455225</v>
+        <v>1.024756824554717</v>
       </c>
       <c r="M13">
-        <v>1.03574086404264</v>
+        <v>1.032845930890128</v>
       </c>
       <c r="N13">
-        <v>1.01259774483862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009525093317275</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035662460280008</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031145093131214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.999997753628776</v>
+        <v>0.9906540377686219</v>
       </c>
       <c r="D14">
-        <v>1.017910283735907</v>
+        <v>1.014538486713793</v>
       </c>
       <c r="E14">
-        <v>1.0183613730693</v>
+        <v>1.011329602682541</v>
       </c>
       <c r="F14">
-        <v>1.022062292283249</v>
+        <v>1.019540340720232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044173050401103</v>
+        <v>1.045794022100833</v>
       </c>
       <c r="J14">
-        <v>1.029406280243933</v>
+        <v>1.020457073399279</v>
       </c>
       <c r="K14">
-        <v>1.032518698605527</v>
+        <v>1.029207956042257</v>
       </c>
       <c r="L14">
-        <v>1.03296165973808</v>
+        <v>1.02605766895367</v>
       </c>
       <c r="M14">
-        <v>1.036596243622638</v>
+        <v>1.034119427641779</v>
       </c>
       <c r="N14">
-        <v>1.012835171856979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01006414386174</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036842886918454</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031791515216205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000629154865741</v>
+        <v>0.9913913236842299</v>
       </c>
       <c r="D15">
-        <v>1.018367118804659</v>
+        <v>1.015040707052086</v>
       </c>
       <c r="E15">
-        <v>1.018947955575589</v>
+        <v>1.011988900209005</v>
       </c>
       <c r="F15">
-        <v>1.022684367744131</v>
+        <v>1.020155717704459</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044391811449559</v>
+        <v>1.046003299992149</v>
       </c>
       <c r="J15">
-        <v>1.029824853049546</v>
+        <v>1.020973385234944</v>
       </c>
       <c r="K15">
-        <v>1.032880724533365</v>
+        <v>1.029614060593473</v>
       </c>
       <c r="L15">
-        <v>1.033451180467679</v>
+        <v>1.026617518719703</v>
       </c>
       <c r="M15">
-        <v>1.037121180331098</v>
+        <v>1.034637406341063</v>
       </c>
       <c r="N15">
-        <v>1.012980839742668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01027554948331</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037289907005517</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032084543911123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00426569685042</v>
+        <v>0.99483626060908</v>
       </c>
       <c r="D16">
-        <v>1.021000254653076</v>
+        <v>1.017342439820582</v>
       </c>
       <c r="E16">
-        <v>1.022328970924816</v>
+        <v>1.014905913232583</v>
       </c>
       <c r="F16">
-        <v>1.026270054163593</v>
+        <v>1.022742923266981</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045648886922157</v>
+        <v>1.046904158562151</v>
       </c>
       <c r="J16">
-        <v>1.032234840314908</v>
+        <v>1.02317881457815</v>
       </c>
       <c r="K16">
-        <v>1.034964824095649</v>
+        <v>1.031369695733182</v>
       </c>
       <c r="L16">
-        <v>1.036270912655154</v>
+        <v>1.028975250000613</v>
       </c>
       <c r="M16">
-        <v>1.040145324678843</v>
+        <v>1.036677830997392</v>
       </c>
       <c r="N16">
-        <v>1.013819435471114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011037584685989</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038863877166224</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0333290212406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006513874960918</v>
+        <v>0.9966688758471459</v>
       </c>
       <c r="D17">
-        <v>1.022629790732053</v>
+        <v>1.018550049785497</v>
       </c>
       <c r="E17">
-        <v>1.024421415011552</v>
+        <v>1.016377917896906</v>
       </c>
       <c r="F17">
-        <v>1.028489255316837</v>
+        <v>1.02397170318534</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046423469854625</v>
+        <v>1.047346992299173</v>
       </c>
       <c r="J17">
-        <v>1.03372401563289</v>
+        <v>1.024255668855037</v>
       </c>
       <c r="K17">
-        <v>1.036252340339865</v>
+        <v>1.032240463329361</v>
       </c>
       <c r="L17">
-        <v>1.03801438181813</v>
+        <v>1.030104750078235</v>
       </c>
       <c r="M17">
-        <v>1.042015546797979</v>
+        <v>1.037572082987931</v>
       </c>
       <c r="N17">
-        <v>1.014337516765939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011341967837968</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039441522402289</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033947281916235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007813702693984</v>
+        <v>0.9972463482620925</v>
       </c>
       <c r="D18">
-        <v>1.023572514986661</v>
+        <v>1.01889446727421</v>
       </c>
       <c r="E18">
-        <v>1.025631988647055</v>
+        <v>1.016683835394417</v>
       </c>
       <c r="F18">
-        <v>1.029773199574807</v>
+        <v>1.024067318780783</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046870370277876</v>
+        <v>1.047422034994248</v>
       </c>
       <c r="J18">
-        <v>1.034584733423695</v>
+        <v>1.024413790402899</v>
       </c>
       <c r="K18">
-        <v>1.036996394037032</v>
+        <v>1.032394837444005</v>
       </c>
       <c r="L18">
-        <v>1.039022477070445</v>
+        <v>1.030220666984854</v>
       </c>
       <c r="M18">
-        <v>1.043097064182806</v>
+        <v>1.037483159743753</v>
       </c>
       <c r="N18">
-        <v>1.014636918377013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011251870925788</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039133196805278</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034044758071136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008254994280932</v>
+        <v>0.9967138535842175</v>
       </c>
       <c r="D19">
-        <v>1.023892665011413</v>
+        <v>1.018485383252408</v>
       </c>
       <c r="E19">
-        <v>1.026043110164533</v>
+        <v>1.015950311811644</v>
       </c>
       <c r="F19">
-        <v>1.030209244818556</v>
+        <v>1.023142321037793</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0470219320508</v>
+        <v>1.047180851600023</v>
       </c>
       <c r="J19">
-        <v>1.034876898447721</v>
+        <v>1.023766228014465</v>
       </c>
       <c r="K19">
-        <v>1.03724893928416</v>
+        <v>1.031929610704439</v>
       </c>
       <c r="L19">
-        <v>1.039364736477796</v>
+        <v>1.029436188666764</v>
       </c>
       <c r="M19">
-        <v>1.043464273738242</v>
+        <v>1.036510728853062</v>
       </c>
       <c r="N19">
-        <v>1.014738541087286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010830649011305</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038038110693354</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033722243186656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006273864003983</v>
+        <v>0.9930493598044053</v>
       </c>
       <c r="D20">
-        <v>1.022455764282609</v>
+        <v>1.015936225234523</v>
       </c>
       <c r="E20">
-        <v>1.024197947859129</v>
+        <v>1.012308811474085</v>
       </c>
       <c r="F20">
-        <v>1.028252247215499</v>
+        <v>1.01940680620217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046340874101724</v>
+        <v>1.046042257972385</v>
       </c>
       <c r="J20">
-        <v>1.033565062727562</v>
+        <v>1.020850871543498</v>
       </c>
       <c r="K20">
-        <v>1.036114923453884</v>
+        <v>1.029704526187434</v>
       </c>
       <c r="L20">
-        <v>1.037828244407539</v>
+        <v>1.026138624002433</v>
       </c>
       <c r="M20">
-        <v>1.041815863234991</v>
+        <v>1.033116783178199</v>
       </c>
       <c r="N20">
-        <v>1.014282221470361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009466924662937</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034823150277912</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032152965699712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9996952876449656</v>
+        <v>0.9861970051451988</v>
       </c>
       <c r="D21">
-        <v>1.017691478655399</v>
+        <v>1.01132755467034</v>
       </c>
       <c r="E21">
-        <v>1.018080424218307</v>
+        <v>1.006359979727392</v>
       </c>
       <c r="F21">
-        <v>1.021764345286819</v>
+        <v>1.014036195102186</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044068204625229</v>
+        <v>1.044192075204323</v>
       </c>
       <c r="J21">
-        <v>1.029205754283538</v>
+        <v>1.016283378448625</v>
       </c>
       <c r="K21">
-        <v>1.032345257232743</v>
+        <v>1.026097454640675</v>
       </c>
       <c r="L21">
-        <v>1.032727166984219</v>
+        <v>1.02122185388713</v>
       </c>
       <c r="M21">
-        <v>1.036344792973265</v>
+        <v>1.028756439058962</v>
       </c>
       <c r="N21">
-        <v>1.012765384886805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007760627984059</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031331123801356</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029605876126527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9954473347625961</v>
+        <v>0.9818316176796388</v>
       </c>
       <c r="D22">
-        <v>1.014621044382672</v>
+        <v>1.00839448577081</v>
       </c>
       <c r="E22">
-        <v>1.014137880797008</v>
+        <v>1.002603721342741</v>
       </c>
       <c r="F22">
-        <v>1.017583359065251</v>
+        <v>1.010676262521354</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04259236692245</v>
+        <v>1.043002433659319</v>
       </c>
       <c r="J22">
-        <v>1.026388657556377</v>
+        <v>1.013390482552042</v>
       </c>
       <c r="K22">
-        <v>1.029908315429646</v>
+        <v>1.023801460545757</v>
       </c>
       <c r="L22">
-        <v>1.02943437169088</v>
+        <v>1.018123773868973</v>
       </c>
       <c r="M22">
-        <v>1.032814352665962</v>
+        <v>1.026039146565863</v>
       </c>
       <c r="N22">
-        <v>1.011784872617363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006685895105275</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029180537835418</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027968893524124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9977102629872419</v>
+        <v>0.9841385764909071</v>
       </c>
       <c r="D23">
-        <v>1.016256100383931</v>
+        <v>1.009938246039522</v>
       </c>
       <c r="E23">
-        <v>1.01623736889446</v>
+        <v>1.004587074727334</v>
       </c>
       <c r="F23">
-        <v>1.019809803002797</v>
+        <v>1.012451753084839</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043379324892944</v>
+        <v>1.043628266421253</v>
       </c>
       <c r="J23">
-        <v>1.027889539819407</v>
+        <v>1.014913886652061</v>
       </c>
       <c r="K23">
-        <v>1.0312067377415</v>
+        <v>1.025007050168606</v>
       </c>
       <c r="L23">
-        <v>1.031188353766724</v>
+        <v>1.019757486612267</v>
       </c>
       <c r="M23">
-        <v>1.03469481140906</v>
+        <v>1.027473314891939</v>
       </c>
       <c r="N23">
-        <v>1.01230728990665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007244555165954</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030315603176532</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028811595933459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006382350066006</v>
+        <v>0.9929970491377346</v>
       </c>
       <c r="D24">
-        <v>1.022534423261374</v>
+        <v>1.015884713810677</v>
       </c>
       <c r="E24">
-        <v>1.024298953609854</v>
+        <v>1.012223802142927</v>
       </c>
       <c r="F24">
-        <v>1.028359373277947</v>
+        <v>1.019295973312439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04637821068261</v>
+        <v>1.046007958809897</v>
       </c>
       <c r="J24">
-        <v>1.033636911041295</v>
+        <v>1.020767362626227</v>
       </c>
       <c r="K24">
-        <v>1.036177037608219</v>
+        <v>1.029638502607748</v>
       </c>
       <c r="L24">
-        <v>1.037912379149998</v>
+        <v>1.026039601615288</v>
       </c>
       <c r="M24">
-        <v>1.041906120474568</v>
+        <v>1.032992496815537</v>
       </c>
       <c r="N24">
-        <v>1.01430721562723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009401949845585</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034683714835558</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032078740908913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015998214008189</v>
+        <v>1.002792226137688</v>
       </c>
       <c r="D25">
-        <v>1.029517902376631</v>
+        <v>1.022474118540928</v>
       </c>
       <c r="E25">
-        <v>1.033267951703699</v>
+        <v>1.020704837465895</v>
       </c>
       <c r="F25">
-        <v>1.037872701813245</v>
+        <v>1.026918505103811</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049667156528642</v>
+        <v>1.048574467666337</v>
       </c>
       <c r="J25">
-        <v>1.039998914322912</v>
+        <v>1.027225984749576</v>
       </c>
       <c r="K25">
-        <v>1.041674642222704</v>
+        <v>1.034733290172254</v>
       </c>
       <c r="L25">
-        <v>1.045370878798951</v>
+        <v>1.032990020383041</v>
       </c>
       <c r="M25">
-        <v>1.049910223686446</v>
+        <v>1.039112838367011</v>
       </c>
       <c r="N25">
-        <v>1.016519422859468</v>
+        <v>1.011778485907202</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039527577793178</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035678161992741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010205341845535</v>
+        <v>1.009786366225454</v>
       </c>
       <c r="D2">
-        <v>1.027451083614372</v>
+        <v>1.026519765712995</v>
       </c>
       <c r="E2">
-        <v>1.027148141236037</v>
+        <v>1.026768737952565</v>
       </c>
       <c r="F2">
-        <v>1.032731441634295</v>
+        <v>1.032434993123896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050449366533371</v>
+        <v>1.04997649922066</v>
       </c>
       <c r="J2">
-        <v>1.032085039287608</v>
+        <v>1.031678257423227</v>
       </c>
       <c r="K2">
-        <v>1.038540782813116</v>
+        <v>1.037621599448569</v>
       </c>
       <c r="L2">
-        <v>1.038241784575825</v>
+        <v>1.037867325023046</v>
       </c>
       <c r="M2">
-        <v>1.043752858285778</v>
+        <v>1.0434602201352</v>
       </c>
       <c r="N2">
-        <v>1.013544822627751</v>
+        <v>1.014953613962275</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043199838071582</v>
+        <v>1.042968235422612</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038321943910108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037680778940904</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02189619180022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015434033380541</v>
+        <v>1.014633462138925</v>
       </c>
       <c r="D3">
-        <v>1.030973725996282</v>
+        <v>1.02965140209426</v>
       </c>
       <c r="E3">
-        <v>1.031708105248376</v>
+        <v>1.030982481627605</v>
       </c>
       <c r="F3">
-        <v>1.036851345572396</v>
+        <v>1.036284716923081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051746311645138</v>
+        <v>1.05107420086629</v>
       </c>
       <c r="J3">
-        <v>1.035512614631423</v>
+        <v>1.03473300051763</v>
       </c>
       <c r="K3">
-        <v>1.041225056450316</v>
+        <v>1.039918439978079</v>
       </c>
       <c r="L3">
-        <v>1.041950733808175</v>
+        <v>1.041233708242894</v>
       </c>
       <c r="M3">
-        <v>1.047033457678884</v>
+        <v>1.046473459669539</v>
       </c>
       <c r="N3">
-        <v>1.014799236761151</v>
+        <v>1.015824931715678</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045796198240126</v>
+        <v>1.045353000454094</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040217298763513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039301901412842</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022421265505176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018738613650759</v>
+        <v>1.017701008740679</v>
       </c>
       <c r="D4">
-        <v>1.033201058624493</v>
+        <v>1.031634293326017</v>
       </c>
       <c r="E4">
-        <v>1.034596343230919</v>
+        <v>1.033655356091934</v>
       </c>
       <c r="F4">
-        <v>1.039464919670276</v>
+        <v>1.03873039455398</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052550586819527</v>
+        <v>1.051753677262827</v>
       </c>
       <c r="J4">
-        <v>1.037674833381336</v>
+        <v>1.03666250887735</v>
       </c>
       <c r="K4">
-        <v>1.042914632360831</v>
+        <v>1.041365342556348</v>
       </c>
       <c r="L4">
-        <v>1.044294408946153</v>
+        <v>1.043363874842195</v>
       </c>
       <c r="M4">
-        <v>1.04910927370981</v>
+        <v>1.048382812485212</v>
       </c>
       <c r="N4">
-        <v>1.015589690859072</v>
+        <v>1.016375090213286</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047439053660598</v>
+        <v>1.046864113551075</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041412868692159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04032595959833</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022749403163161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020115354141264</v>
+        <v>1.018979415294273</v>
       </c>
       <c r="D5">
-        <v>1.0341312352976</v>
+        <v>1.032462973402003</v>
       </c>
       <c r="E5">
-        <v>1.035801278015242</v>
+        <v>1.034770883347659</v>
       </c>
       <c r="F5">
-        <v>1.040555599053877</v>
+        <v>1.039751409100928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052883512296571</v>
+        <v>1.05203472818902</v>
       </c>
       <c r="J5">
-        <v>1.038576436601995</v>
+        <v>1.037467328241225</v>
       </c>
       <c r="K5">
-        <v>1.043619740739128</v>
+        <v>1.041969585469189</v>
       </c>
       <c r="L5">
-        <v>1.045271729128004</v>
+        <v>1.044252465302715</v>
       </c>
       <c r="M5">
-        <v>1.049975041250556</v>
+        <v>1.049179439271954</v>
       </c>
       <c r="N5">
-        <v>1.015920946028899</v>
+        <v>1.016605703105805</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048124243789977</v>
+        <v>1.04749458446858</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041918591284589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040761074078389</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022886700049432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02035228507747</v>
+        <v>1.019198849658465</v>
       </c>
       <c r="D6">
-        <v>1.034293832990247</v>
+        <v>1.032607811758456</v>
       </c>
       <c r="E6">
-        <v>1.036008944455143</v>
+        <v>1.034962640079041</v>
       </c>
       <c r="F6">
-        <v>1.040742858966309</v>
+        <v>1.039926273357631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052942557063158</v>
+        <v>1.052084694619572</v>
       </c>
       <c r="J6">
-        <v>1.038733730521881</v>
+        <v>1.037607395418403</v>
       </c>
       <c r="K6">
-        <v>1.043744532997911</v>
+        <v>1.042076726291534</v>
       </c>
       <c r="L6">
-        <v>1.045441190208645</v>
+        <v>1.044406134940273</v>
       </c>
       <c r="M6">
-        <v>1.050124555085944</v>
+        <v>1.049316648924694</v>
       </c>
       <c r="N6">
-        <v>1.015981000424114</v>
+        <v>1.016647282262304</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04824257272218</v>
+        <v>1.047603175660626</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042015550664869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040846424109413</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022912105100335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018775507175575</v>
+        <v>1.017746180364912</v>
       </c>
       <c r="D7">
-        <v>1.033232696137898</v>
+        <v>1.03167142737602</v>
       </c>
       <c r="E7">
-        <v>1.034629210938901</v>
+        <v>1.033695727782107</v>
       </c>
       <c r="F7">
-        <v>1.039492584885521</v>
+        <v>1.038763918958365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052564813733884</v>
+        <v>1.051770696290388</v>
       </c>
       <c r="J7">
-        <v>1.037704909646207</v>
+        <v>1.036700649701302</v>
       </c>
       <c r="K7">
-        <v>1.0429430451165</v>
+        <v>1.041399183311344</v>
       </c>
       <c r="L7">
-        <v>1.044324044584006</v>
+        <v>1.04340092674687</v>
       </c>
       <c r="M7">
-        <v>1.049133785955679</v>
+        <v>1.048413116356549</v>
       </c>
       <c r="N7">
-        <v>1.015606972583834</v>
+        <v>1.016417691481288</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047458453275028</v>
+        <v>1.046888096823709</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041453025312104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04037195922306</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022761521071553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012012677664252</v>
+        <v>1.011497904654736</v>
       </c>
       <c r="D8">
-        <v>1.028676721064771</v>
+        <v>1.027636996784066</v>
       </c>
       <c r="E8">
-        <v>1.028723766053082</v>
+        <v>1.028257463986099</v>
       </c>
       <c r="F8">
-        <v>1.03415154466501</v>
+        <v>1.033787272372198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050907274847495</v>
+        <v>1.05037917578917</v>
       </c>
       <c r="J8">
-        <v>1.033278065002831</v>
+        <v>1.032777754364011</v>
       </c>
       <c r="K8">
-        <v>1.03948176841934</v>
+        <v>1.038455181222289</v>
       </c>
       <c r="L8">
-        <v>1.039528219770213</v>
+        <v>1.039067804732289</v>
       </c>
       <c r="M8">
-        <v>1.044887959742884</v>
+        <v>1.044528225829616</v>
       </c>
       <c r="N8">
-        <v>1.01398991078339</v>
+        <v>1.015357375545724</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044098190866338</v>
+        <v>1.043813486949893</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039010201476992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038295360183279</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022095756840307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9994262828535425</v>
+        <v>0.9998658753000043</v>
       </c>
       <c r="D9">
-        <v>1.020198444975445</v>
+        <v>1.020123395443975</v>
       </c>
       <c r="E9">
-        <v>1.017784923779298</v>
+        <v>1.018182176997288</v>
       </c>
       <c r="F9">
-        <v>1.024294683376017</v>
+        <v>1.024605467127764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047693594892223</v>
+        <v>1.047655567825371</v>
       </c>
       <c r="J9">
-        <v>1.024999316830988</v>
+        <v>1.025423370745141</v>
       </c>
       <c r="K9">
-        <v>1.032972101270448</v>
+        <v>1.032898208688965</v>
       </c>
       <c r="L9">
-        <v>1.030595895690144</v>
+        <v>1.030986991412397</v>
       </c>
       <c r="M9">
-        <v>1.037005520736049</v>
+        <v>1.037311564521658</v>
       </c>
       <c r="N9">
-        <v>1.01094848046314</v>
+        <v>1.013265591101312</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037859772985525</v>
+        <v>1.03810198697261</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034404225094928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034362752584233</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020808171165758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9907293737892365</v>
+        <v>0.9919025764350283</v>
       </c>
       <c r="D10">
-        <v>1.01436448435489</v>
+        <v>1.015007736288757</v>
       </c>
       <c r="E10">
-        <v>1.010314566601713</v>
+        <v>1.011372710297813</v>
       </c>
       <c r="F10">
-        <v>1.017632498634181</v>
+        <v>1.018461065766469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045416428322769</v>
+        <v>1.045741843812891</v>
       </c>
       <c r="J10">
-        <v>1.01931569873414</v>
+        <v>1.020441188532317</v>
       </c>
       <c r="K10">
-        <v>1.028479138260089</v>
+        <v>1.029111207192579</v>
       </c>
       <c r="L10">
-        <v>1.024500052653847</v>
+        <v>1.02553961872212</v>
       </c>
       <c r="M10">
-        <v>1.031690527300744</v>
+        <v>1.032504812428811</v>
       </c>
       <c r="N10">
-        <v>1.008889835807364</v>
+        <v>1.011989174020134</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033705022150859</v>
+        <v>1.034349439476831</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03124426426148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031703652887808</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019937321473042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9882742457867355</v>
+        <v>0.9896432706370361</v>
       </c>
       <c r="D11">
-        <v>1.012804396945335</v>
+        <v>1.013643949800052</v>
       </c>
       <c r="E11">
-        <v>1.008615568711955</v>
+        <v>1.009848361483887</v>
       </c>
       <c r="F11">
-        <v>1.016497125664181</v>
+        <v>1.017461845206906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044908792247732</v>
+        <v>1.045333243886256</v>
       </c>
       <c r="J11">
-        <v>1.018143098772839</v>
+        <v>1.01945334017002</v>
       </c>
       <c r="K11">
-        <v>1.0274888145345</v>
+        <v>1.028313067935601</v>
       </c>
       <c r="L11">
-        <v>1.023376816687452</v>
+        <v>1.024586911670626</v>
       </c>
       <c r="M11">
-        <v>1.03111449500592</v>
+        <v>1.032061802521729</v>
       </c>
       <c r="N11">
-        <v>1.008731416680217</v>
+        <v>1.01211621962195</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033687788804312</v>
+        <v>1.034437097935091</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030577087842342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031175563738366</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01986065592479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9878909388037037</v>
+        <v>0.9892537516346798</v>
       </c>
       <c r="D12">
-        <v>1.012606406180948</v>
+        <v>1.013450143569943</v>
       </c>
       <c r="E12">
-        <v>1.008585675100035</v>
+        <v>1.009811831161083</v>
       </c>
       <c r="F12">
-        <v>1.016744714957209</v>
+        <v>1.017703689164069</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044911396238546</v>
+        <v>1.045337869930495</v>
       </c>
       <c r="J12">
-        <v>1.01821676664927</v>
+        <v>1.019519979500252</v>
       </c>
       <c r="K12">
-        <v>1.027496008082688</v>
+        <v>1.028324118346988</v>
       </c>
       <c r="L12">
-        <v>1.023550215159556</v>
+        <v>1.024753435652467</v>
       </c>
       <c r="M12">
-        <v>1.031557993418462</v>
+        <v>1.032499396466443</v>
       </c>
       <c r="N12">
-        <v>1.008962709903823</v>
+        <v>1.012362952588734</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03436648112907</v>
+        <v>1.035110865661508</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03058217396957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031183376645701</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019936811477316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9890988455244478</v>
+        <v>0.9902777862575349</v>
       </c>
       <c r="D13">
-        <v>1.013465202905774</v>
+        <v>1.01415014443141</v>
       </c>
       <c r="E13">
-        <v>1.009859518608102</v>
+        <v>1.010919898023183</v>
       </c>
       <c r="F13">
-        <v>1.018100377794513</v>
+        <v>1.018929207727287</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045323558243075</v>
+        <v>1.045669794991593</v>
       </c>
       <c r="J13">
-        <v>1.019277498199321</v>
+        <v>1.020405234758889</v>
       </c>
       <c r="K13">
-        <v>1.028295715548201</v>
+        <v>1.028968038853862</v>
       </c>
       <c r="L13">
-        <v>1.024756824554717</v>
+        <v>1.025797496526876</v>
       </c>
       <c r="M13">
-        <v>1.032845930890128</v>
+        <v>1.033659674940833</v>
       </c>
       <c r="N13">
-        <v>1.009525093317275</v>
+        <v>1.012688769954139</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035662460280008</v>
+        <v>1.036305740018595</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031145093131214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03163589668317</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020142117104049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9906540377686219</v>
+        <v>0.9916286000350613</v>
       </c>
       <c r="D14">
-        <v>1.014538486713793</v>
+        <v>1.015042628352224</v>
       </c>
       <c r="E14">
-        <v>1.011329602682541</v>
+        <v>1.012206172564798</v>
       </c>
       <c r="F14">
-        <v>1.019540340720232</v>
+        <v>1.020225215638743</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045794022100833</v>
+        <v>1.04604891354846</v>
       </c>
       <c r="J14">
-        <v>1.020457073399279</v>
+        <v>1.021389992483631</v>
       </c>
       <c r="K14">
-        <v>1.029207956042257</v>
+        <v>1.029702935437461</v>
       </c>
       <c r="L14">
-        <v>1.02605766895367</v>
+        <v>1.026918183903561</v>
       </c>
       <c r="M14">
-        <v>1.034119427641779</v>
+        <v>1.034792016625461</v>
       </c>
       <c r="N14">
-        <v>1.01006414386174</v>
+        <v>1.012953455104368</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036842886918454</v>
+        <v>1.037374509181608</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031791515216205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032157056100523</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020344314059473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9913913236842299</v>
+        <v>0.992277541416219</v>
       </c>
       <c r="D15">
-        <v>1.015040707052086</v>
+        <v>1.015465418655946</v>
       </c>
       <c r="E15">
-        <v>1.011988900209005</v>
+        <v>1.012786092190338</v>
       </c>
       <c r="F15">
-        <v>1.020155717704459</v>
+        <v>1.020778495358715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046003299992149</v>
+        <v>1.046218055955498</v>
       </c>
       <c r="J15">
-        <v>1.020973385234944</v>
+        <v>1.021822093183891</v>
       </c>
       <c r="K15">
-        <v>1.029614060593473</v>
+        <v>1.030031115346971</v>
       </c>
       <c r="L15">
-        <v>1.026617518719703</v>
+        <v>1.027400232599682</v>
       </c>
       <c r="M15">
-        <v>1.034637406341063</v>
+        <v>1.03524910475625</v>
       </c>
       <c r="N15">
-        <v>1.01027554948331</v>
+        <v>1.013044662767031</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037289907005517</v>
+        <v>1.037773387998796</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032084543911123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032395553165675</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020426565419543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99483626060908</v>
+        <v>0.9953649094557274</v>
       </c>
       <c r="D16">
-        <v>1.017342439820582</v>
+        <v>1.017434964637665</v>
       </c>
       <c r="E16">
-        <v>1.014905913232583</v>
+        <v>1.015381889142271</v>
       </c>
       <c r="F16">
-        <v>1.022742923266981</v>
+        <v>1.023114645492363</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046904158562151</v>
+        <v>1.046950973180675</v>
       </c>
       <c r="J16">
-        <v>1.02317881457815</v>
+        <v>1.023686263242287</v>
       </c>
       <c r="K16">
-        <v>1.031369695733182</v>
+        <v>1.031460627705007</v>
       </c>
       <c r="L16">
-        <v>1.028975250000613</v>
+        <v>1.029442984872571</v>
       </c>
       <c r="M16">
-        <v>1.036677830997392</v>
+        <v>1.037043243070649</v>
       </c>
       <c r="N16">
-        <v>1.011037584685989</v>
+        <v>1.013328672643804</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038863877166224</v>
+        <v>1.039152704128224</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0333290212406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033409737424894</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020741408839033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966688758471459</v>
+        <v>0.9970427951112902</v>
       </c>
       <c r="D17">
-        <v>1.018550049785497</v>
+        <v>1.018490819325593</v>
       </c>
       <c r="E17">
-        <v>1.016377917896906</v>
+        <v>1.01671481057163</v>
       </c>
       <c r="F17">
-        <v>1.02397170318534</v>
+        <v>1.024234800665197</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047346992299173</v>
+        <v>1.047317011974065</v>
       </c>
       <c r="J17">
-        <v>1.024255668855037</v>
+        <v>1.024615090591402</v>
       </c>
       <c r="K17">
-        <v>1.032240463329361</v>
+        <v>1.032182223290807</v>
       </c>
       <c r="L17">
-        <v>1.030104750078235</v>
+        <v>1.030435981159882</v>
       </c>
       <c r="M17">
-        <v>1.037572082987931</v>
+        <v>1.037830842583778</v>
       </c>
       <c r="N17">
-        <v>1.011341967837968</v>
+        <v>1.013440054940583</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039441522402289</v>
+        <v>1.03964607019576</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033947281916235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033922770458561</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020879305147565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972463482620925</v>
+        <v>0.9976131226003385</v>
       </c>
       <c r="D18">
-        <v>1.01889446727421</v>
+        <v>1.018816429820715</v>
       </c>
       <c r="E18">
-        <v>1.016683835394417</v>
+        <v>1.017014492420175</v>
       </c>
       <c r="F18">
-        <v>1.024067318780783</v>
+        <v>1.024325624656533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047422034994248</v>
+        <v>1.047382526808322</v>
       </c>
       <c r="J18">
-        <v>1.024413790402899</v>
+        <v>1.024766607552356</v>
       </c>
       <c r="K18">
-        <v>1.032394837444005</v>
+        <v>1.032318083648615</v>
       </c>
       <c r="L18">
-        <v>1.030220666984854</v>
+        <v>1.030545857290592</v>
       </c>
       <c r="M18">
-        <v>1.037483159743753</v>
+        <v>1.037737273402643</v>
       </c>
       <c r="N18">
-        <v>1.011251870925788</v>
+        <v>1.013351297084392</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039133196805278</v>
+        <v>1.039334113986282</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034044758071136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034006023118596</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020860505363352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9967138535842175</v>
+        <v>0.9971931155158337</v>
       </c>
       <c r="D19">
-        <v>1.018485383252408</v>
+        <v>1.018499280394306</v>
       </c>
       <c r="E19">
-        <v>1.015950311811644</v>
+        <v>1.016382624095087</v>
       </c>
       <c r="F19">
-        <v>1.023142321037793</v>
+        <v>1.023480253065906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047180851600023</v>
+        <v>1.047187887715517</v>
       </c>
       <c r="J19">
-        <v>1.023766228014465</v>
+        <v>1.024227334478222</v>
       </c>
       <c r="K19">
-        <v>1.031929610704439</v>
+        <v>1.031943280260878</v>
       </c>
       <c r="L19">
-        <v>1.029436188666764</v>
+        <v>1.029861379467633</v>
       </c>
       <c r="M19">
-        <v>1.036510728853062</v>
+        <v>1.036843193477196</v>
       </c>
       <c r="N19">
-        <v>1.010830649011305</v>
+        <v>1.013075818453861</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038038110693354</v>
+        <v>1.038301062936879</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033722243186656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033748068260575</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020707843999844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930493598044053</v>
+        <v>0.993980958158365</v>
       </c>
       <c r="D20">
-        <v>1.015936225234523</v>
+        <v>1.016355381882201</v>
       </c>
       <c r="E20">
-        <v>1.012308811474085</v>
+        <v>1.013149481227262</v>
       </c>
       <c r="F20">
-        <v>1.01940680620217</v>
+        <v>1.02006492360756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046042257972385</v>
+        <v>1.046254391526623</v>
       </c>
       <c r="J20">
-        <v>1.020850871543498</v>
+        <v>1.021745891887838</v>
       </c>
       <c r="K20">
-        <v>1.029704526187434</v>
+        <v>1.030116611524035</v>
       </c>
       <c r="L20">
-        <v>1.026138624002433</v>
+        <v>1.02696498754053</v>
       </c>
       <c r="M20">
-        <v>1.033116783178199</v>
+        <v>1.033763898437069</v>
       </c>
       <c r="N20">
-        <v>1.009466924662937</v>
+        <v>1.012261438415641</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034823150277912</v>
+        <v>1.035335276893382</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032152965699712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032460890010092</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020173659243537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9861970051451988</v>
+        <v>0.987923063773664</v>
       </c>
       <c r="D21">
-        <v>1.01132755467034</v>
+        <v>1.012471003376584</v>
       </c>
       <c r="E21">
-        <v>1.006359979727392</v>
+        <v>1.007915376587298</v>
       </c>
       <c r="F21">
-        <v>1.014036195102186</v>
+        <v>1.01525491926861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044192075204323</v>
+        <v>1.044770097546651</v>
       </c>
       <c r="J21">
-        <v>1.016283378448625</v>
+        <v>1.017934540893482</v>
       </c>
       <c r="K21">
-        <v>1.026097454640675</v>
+        <v>1.027219898925227</v>
       </c>
       <c r="L21">
-        <v>1.02122185388713</v>
+        <v>1.022748325570179</v>
       </c>
       <c r="M21">
-        <v>1.028756439058962</v>
+        <v>1.029952933499105</v>
       </c>
       <c r="N21">
-        <v>1.007760627984059</v>
+        <v>1.011620268074101</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031331123801356</v>
+        <v>1.032278080535482</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029605876126527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030416402401532</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019507079662084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9818316176796388</v>
+        <v>0.9840707102501778</v>
       </c>
       <c r="D22">
-        <v>1.00839448577081</v>
+        <v>1.010004563895972</v>
       </c>
       <c r="E22">
-        <v>1.002603721342741</v>
+        <v>1.004619409686624</v>
       </c>
       <c r="F22">
-        <v>1.010676262521354</v>
+        <v>1.012256450744273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043002433659319</v>
+        <v>1.043815749083165</v>
       </c>
       <c r="J22">
-        <v>1.013390482552042</v>
+        <v>1.015526334324906</v>
       </c>
       <c r="K22">
-        <v>1.023801460545757</v>
+        <v>1.025380400055553</v>
       </c>
       <c r="L22">
-        <v>1.018123773868973</v>
+        <v>1.020099907271801</v>
       </c>
       <c r="M22">
-        <v>1.026039146565863</v>
+        <v>1.027588953345918</v>
       </c>
       <c r="N22">
-        <v>1.006685895105275</v>
+        <v>1.011217455459253</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029180537835418</v>
+        <v>1.03040712457102</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027968893524124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029100910284559</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019085191962694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841385764909071</v>
+        <v>0.9860851827380231</v>
       </c>
       <c r="D23">
-        <v>1.009938246039522</v>
+        <v>1.011285342176911</v>
       </c>
       <c r="E23">
-        <v>1.004587074727334</v>
+        <v>1.006340398745776</v>
       </c>
       <c r="F23">
-        <v>1.012451753084839</v>
+        <v>1.01382588940187</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043628266421253</v>
+        <v>1.044309000560229</v>
       </c>
       <c r="J23">
-        <v>1.014913886652061</v>
+        <v>1.016773559396632</v>
       </c>
       <c r="K23">
-        <v>1.025007050168606</v>
+        <v>1.02632878898096</v>
       </c>
       <c r="L23">
-        <v>1.019757486612267</v>
+        <v>1.021477362927783</v>
       </c>
       <c r="M23">
-        <v>1.027473314891939</v>
+        <v>1.028821753043175</v>
       </c>
       <c r="N23">
-        <v>1.007244555165954</v>
+        <v>1.011373442740674</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030315603176532</v>
+        <v>1.031382816107465</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028811595933459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029760815365998</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019296694384595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9929970491377346</v>
+        <v>0.993945296898524</v>
       </c>
       <c r="D24">
-        <v>1.015884713810677</v>
+        <v>1.016316407119869</v>
       </c>
       <c r="E24">
-        <v>1.012223802142927</v>
+        <v>1.013079573032544</v>
       </c>
       <c r="F24">
-        <v>1.019295973312439</v>
+        <v>1.019965973984603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046007958809897</v>
+        <v>1.046226440353624</v>
       </c>
       <c r="J24">
-        <v>1.020767362626227</v>
+        <v>1.021678426391006</v>
       </c>
       <c r="K24">
-        <v>1.029638502607748</v>
+        <v>1.030062921619178</v>
       </c>
       <c r="L24">
-        <v>1.026039601615288</v>
+        <v>1.026880825139463</v>
       </c>
       <c r="M24">
-        <v>1.032992496815537</v>
+        <v>1.033651308075263</v>
       </c>
       <c r="N24">
-        <v>1.009401949845585</v>
+        <v>1.012217452384752</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034683714835558</v>
+        <v>1.035205123835461</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032078740908913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032392724338938</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020147372141243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002792226137688</v>
+        <v>1.002952408333901</v>
       </c>
       <c r="D25">
-        <v>1.022474118540928</v>
+        <v>1.022124498077735</v>
       </c>
       <c r="E25">
-        <v>1.020704837465895</v>
+        <v>1.02084968754856</v>
       </c>
       <c r="F25">
-        <v>1.026918505103811</v>
+        <v>1.027031781995262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048574467666337</v>
+        <v>1.048397207230859</v>
       </c>
       <c r="J25">
-        <v>1.027225984749576</v>
+        <v>1.027380819050683</v>
       </c>
       <c r="K25">
-        <v>1.034733290172254</v>
+        <v>1.034388800630297</v>
       </c>
       <c r="L25">
-        <v>1.032990020383041</v>
+        <v>1.033132736632266</v>
       </c>
       <c r="M25">
-        <v>1.039112838367011</v>
+        <v>1.039224471979799</v>
       </c>
       <c r="N25">
-        <v>1.011778485907202</v>
+        <v>1.013796339583846</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039527577793178</v>
+        <v>1.039615928426854</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035678161992741</v>
+        <v>1.035448150864886</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021158997082286</v>
       </c>
     </row>
   </sheetData>
